--- a/branches/tillering_hack/fspmwheat_5U_init/inputs/Generate_inputs.xlsx
+++ b/branches/tillering_hack/fspmwheat_5U_init/inputs/Generate_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="185">
   <si>
     <t>plant</t>
   </si>
@@ -1392,6 +1392,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1404,7 +1405,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1691,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:BD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="4" spans="1:56" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1867,7 +1867,7 @@
       <c r="AO4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AP4" s="114" t="s">
+      <c r="AP4" s="110" t="s">
         <v>184</v>
       </c>
       <c r="AQ4" s="14" t="s">
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5">
         <v>0.09</v>
@@ -2046,10 +2046,10 @@
         <v>1.0245264105202596E-5</v>
       </c>
       <c r="AO5" s="1">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AP5" s="1">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AQ5" s="70">
         <f>AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -2236,10 +2236,10 @@
         <v>3.9686117550080197E-6</v>
       </c>
       <c r="AO6" s="1">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AP6" s="1">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AQ6" s="70">
         <f t="shared" ref="AQ6:AQ12" si="16">AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
@@ -2293,7 +2293,7 @@
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -2425,10 +2425,10 @@
         <v>1.4896036478890447E-7</v>
       </c>
       <c r="AO7" s="1">
-        <v>1600</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>32</v>
+        <v>2100</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1800</v>
       </c>
       <c r="AQ7" s="70">
         <f t="shared" si="16"/>
@@ -2480,7 +2480,7 @@
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>4.0381162415234981E-8</v>
       </c>
       <c r="AO8" s="1">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AP8" t="s">
         <v>32</v>
@@ -2667,7 +2667,7 @@
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>1.3819517568152583E-8</v>
       </c>
       <c r="AO9" s="1">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AP9" t="s">
         <v>32</v>
@@ -2854,7 +2854,7 @@
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>6.0025180190440811E-9</v>
       </c>
       <c r="AO10" s="1">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AP10" t="s">
         <v>32</v>
@@ -3041,7 +3041,7 @@
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>2.1699705862716857E-9</v>
       </c>
       <c r="AO11" s="1">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AP11" t="s">
         <v>32</v>
@@ -3228,7 +3228,7 @@
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>1.4569862745926675E-9</v>
       </c>
       <c r="AO12" s="1">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="AP12" t="s">
         <v>32</v>
@@ -3425,9 +3425,10 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
+      <c r="AO13" s="1"/>
     </row>
     <row r="14" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3528,7 +3529,7 @@
       <c r="AV14" s="51"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
+      <c r="A15" s="111"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -3545,8 +3546,8 @@
         <v>39</v>
       </c>
       <c r="G15" s="48">
-        <f>280</f>
-        <v>280</v>
+        <f>G16</f>
+        <v>240</v>
       </c>
       <c r="H15" s="48">
         <v>8.2000000000000003E-2</v>
@@ -3556,19 +3557,19 @@
       </c>
       <c r="J15">
         <f>P15*$U$15</f>
-        <v>4.2972599999999998E-3</v>
+        <v>4.1019300000000002E-3</v>
       </c>
       <c r="K15">
         <f>J15*0.005</f>
-        <v>2.1486299999999998E-5</v>
+        <v>2.0509650000000001E-5</v>
       </c>
       <c r="L15">
         <f>J15*$W15</f>
-        <v>1.7013068517930177</v>
+        <v>1.6239747221660625</v>
       </c>
       <c r="M15">
         <f t="shared" ref="M15:M20" si="22">J15*$X15</f>
-        <v>17.013068517930176</v>
+        <v>16.239747221660625</v>
       </c>
       <c r="N15">
         <f t="shared" ref="N15:N20" si="23">AA15*$J15</f>
@@ -3576,14 +3577,14 @@
       </c>
       <c r="O15" s="1">
         <f t="shared" ref="O15:O20" si="24">J15*$AB$16</f>
-        <v>18.958500000000001</v>
+        <v>18.09675</v>
       </c>
       <c r="P15">
         <v>1.9532999999999999E-4</v>
       </c>
       <c r="Q15" s="1">
         <f>J15*$AC15</f>
-        <v>0.24494381999999998</v>
+        <v>0.23381001000000001</v>
       </c>
       <c r="R15">
         <v>4250</v>
@@ -3595,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V15" s="15">
         <v>4.3</v>
@@ -3627,11 +3628,11 @@
       </c>
       <c r="AD15" s="15">
         <f>J15+L15*$F$31+M15*$J$31+O15*$E$31</f>
-        <v>6.5927338413052268E-3</v>
+        <v>6.293064121245898E-3</v>
       </c>
       <c r="AE15" s="71">
         <f>(1-J15/AD15)*100</f>
-        <v>34.81823923974413</v>
+        <v>34.818239239744116</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AQ15" s="82"/>
@@ -3651,7 +3652,7 @@
       <c r="AV15" s="97"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+      <c r="A16" s="111"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -3668,8 +3669,8 @@
         <v>41</v>
       </c>
       <c r="G16" s="48">
-        <f>280</f>
-        <v>280</v>
+        <f>80+G17</f>
+        <v>240</v>
       </c>
       <c r="H16" s="48">
         <v>2.8500000000000001E-2</v>
@@ -3776,7 +3777,7 @@
       <c r="AV16" s="98"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
+      <c r="A17" s="111"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -3793,7 +3794,8 @@
         <v>39</v>
       </c>
       <c r="G17" s="48">
-        <v>180</v>
+        <f>G19</f>
+        <v>160</v>
       </c>
       <c r="H17" s="48">
         <v>9.1999999999999998E-2</v>
@@ -3803,19 +3805,19 @@
       </c>
       <c r="J17">
         <f>P17*$U$17</f>
-        <v>5.3035399999999998E-3</v>
+        <v>5.0624699999999995E-3</v>
       </c>
       <c r="K17">
         <f t="shared" si="27"/>
-        <v>2.6517699999999999E-5</v>
+        <v>2.5312349999999998E-5</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:L20" si="32">J17*$W17</f>
-        <v>2.4889358583911396</v>
+        <v>2.3758024102824513</v>
       </c>
       <c r="M17">
         <f t="shared" si="22"/>
-        <v>24.889358583911395</v>
+        <v>23.758024102824514</v>
       </c>
       <c r="N17">
         <f t="shared" si="23"/>
@@ -3823,14 +3825,14 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" si="24"/>
-        <v>23.397970588235296</v>
+        <v>22.334426470588234</v>
       </c>
       <c r="P17">
         <v>2.4106999999999999E-4</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="28"/>
-        <v>0.36064071999999997</v>
+        <f>J17*$AC17</f>
+        <v>0.34424795999999996</v>
       </c>
       <c r="R17">
         <v>4250</v>
@@ -3842,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V17" s="15">
         <v>4.8</v>
@@ -3869,17 +3871,17 @@
       </c>
       <c r="AD17" s="15">
         <f t="shared" si="30"/>
-        <v>8.5377879623382402E-3</v>
+        <v>8.1497066913228666E-3</v>
       </c>
       <c r="AE17" s="71">
         <f t="shared" si="31"/>
-        <v>37.881568113486843</v>
+        <v>37.88156811348685</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="111"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -3896,7 +3898,8 @@
         <v>42</v>
       </c>
       <c r="G18" s="48">
-        <v>180</v>
+        <f>G19</f>
+        <v>160</v>
       </c>
       <c r="H18" s="48">
         <v>2.8500000000000001E-2</v>
@@ -3960,7 +3963,7 @@
         <v>1604.0455673709137</v>
       </c>
       <c r="AA18" s="89">
-        <f t="shared" si="26"/>
+        <f>IF(F18="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
         <v>1323.5294117647056</v>
       </c>
       <c r="AB18" s="54" t="s">
@@ -3982,7 +3985,7 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
+      <c r="A19" s="111"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -3999,7 +4002,8 @@
         <v>41</v>
       </c>
       <c r="G19" s="48">
-        <v>180</v>
+        <f>80+G20</f>
+        <v>160</v>
       </c>
       <c r="H19" s="48">
         <v>5.0000000000000001E-4</v>
@@ -4090,7 +4094,7 @@
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+      <c r="A20" s="111"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -4106,7 +4110,7 @@
       <c r="F20" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="46">
         <v>80</v>
       </c>
       <c r="H20" s="48">
@@ -4117,19 +4121,19 @@
       </c>
       <c r="J20">
         <f>P20*$U$20</f>
-        <v>4.2242199999999999E-3</v>
+        <v>4.0322099999999996E-3</v>
       </c>
       <c r="K20">
         <f t="shared" si="27"/>
-        <v>2.11211E-5</v>
+        <v>2.0161049999999999E-5</v>
       </c>
       <c r="L20">
         <f t="shared" si="32"/>
-        <v>2.1835532433632427</v>
+        <v>2.0843008232103681</v>
       </c>
       <c r="M20">
         <f t="shared" si="22"/>
-        <v>21.835532433632427</v>
+        <v>20.843008232103678</v>
       </c>
       <c r="N20">
         <f t="shared" si="23"/>
@@ -4137,14 +4141,14 @@
       </c>
       <c r="O20" s="1">
         <f t="shared" si="24"/>
-        <v>18.636264705882354</v>
+        <v>17.789161764705881</v>
       </c>
       <c r="P20">
         <v>1.9201E-4</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="28"/>
-        <v>0.3168165</v>
+        <v>0.30241574999999998</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4156,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V20" s="16">
         <v>5.0999999999999996</v>
@@ -4179,7 +4183,7 @@
       </c>
       <c r="AD20" s="16">
         <f t="shared" si="30"/>
-        <v>7.0076137152537141E-3</v>
+        <v>6.689085819105817E-3</v>
       </c>
       <c r="AE20" s="72">
         <f t="shared" si="31"/>
@@ -4251,7 +4255,7 @@
       </c>
       <c r="Y23" s="74">
         <f>(SUMPRODUCT(V15:V20,AD15:AD20)+SUMPRODUCT(AS5:AS12,AQ5:AQ12))/SUM(AD15:AD20,AQ5:AQ12)</f>
-        <v>4.4146203981518433</v>
+        <v>4.4039658411029281</v>
       </c>
       <c r="AA23" s="54" t="s">
         <v>121</v>
@@ -4294,7 +4298,7 @@
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4351,7 +4355,7 @@
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
+      <c r="A26" s="111"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -4401,7 +4405,7 @@
       <c r="AW26" s="9"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
+      <c r="A27" s="111"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -4413,15 +4417,15 @@
       </c>
       <c r="E27" s="28">
         <f>E28*$K$27</f>
-        <v>154.21320252380491</v>
+        <v>149.46818795927152</v>
       </c>
       <c r="F27" s="28">
         <f>F28*$K$27</f>
-        <v>2.0990033143932734</v>
+        <v>2.0344186930067711</v>
       </c>
       <c r="G27" s="28">
         <f>G28*$K$27</f>
-        <v>20.990033143932731</v>
+        <v>20.344186930067711</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -4434,15 +4438,15 @@
       </c>
       <c r="K27" s="1">
         <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
-        <v>3.4954992572062443E-2</v>
+        <v>3.3879455937434876E-2</v>
       </c>
       <c r="L27" s="28">
         <f>K27*$Y$16</f>
-        <v>1.7477496286031222E-4</v>
+        <v>1.6939727968717439E-4</v>
       </c>
       <c r="M27" s="28">
         <f>M28*$K$27</f>
-        <v>2.7963994057649955</v>
+        <v>8.4698639843587191</v>
       </c>
       <c r="N27" s="76" t="s">
         <v>134</v>
@@ -4456,7 +4460,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="111" t="s">
+      <c r="R27" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -4496,11 +4500,11 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="22">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N28" s="77">
         <f>SUM(AK5:AK12,J15:J20)/K27</f>
-        <v>0.59334451961947088</v>
+        <v>0.59363241585441173</v>
       </c>
       <c r="O28" s="16">
         <v>0.8</v>
@@ -4511,7 +4515,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="111"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -4534,7 +4538,7 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="111"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -4571,9 +4575,9 @@
       </c>
       <c r="P30" s="69">
         <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
-        <v>5.5695345848035004E-2</v>
-      </c>
-      <c r="R30" s="111"/>
+        <v>5.3991399213407433E-2</v>
+      </c>
+      <c r="R30" s="112"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -4618,7 +4622,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="111"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>
@@ -4666,7 +4670,7 @@
         <f>E26*E31+F26*F31</f>
         <v>0</v>
       </c>
-      <c r="R32" s="111"/>
+      <c r="R32" s="112"/>
       <c r="S32" s="11" t="s">
         <v>52</v>
       </c>
@@ -4686,7 +4690,7 @@
       </c>
       <c r="P33" s="69">
         <f t="array" ref="P33">SUM(J15:J20,AK5:AK12)+SUM(AF5:AF12*F31,L15:L20*F31)+SUM(AH5:AH12*J31,M15:M20*J31)+SUM(AE5:AE12*E31,O15:O20*E31)+SUM(N15:N20*E31,AG5:AG12*E31)</f>
-        <v>3.2704112436364279E-2</v>
+        <v>3.1697833549141685E-2</v>
       </c>
       <c r="W33" s="35" t="s">
         <v>122</v>
@@ -4701,11 +4705,11 @@
       </c>
       <c r="P34" s="36">
         <f>K27+E27*E31+F27*F31+G27*G31</f>
-        <v>4.0880140545455336E-2</v>
+        <v>3.9622291936427113E-2</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="113" t="s">
         <v>156</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4749,12 +4753,12 @@
       </c>
       <c r="P35" s="36">
         <f>P34+P33+P32</f>
-        <v>7.3584252981819614E-2</v>
+        <v>7.1320125485568792E-2</v>
       </c>
       <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
+      <c r="A36" s="113"/>
       <c r="B36">
         <v>1</v>
       </c>
@@ -4801,7 +4805,7 @@
       </c>
       <c r="P37" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/$P$33</f>
-        <v>0.36581818826824364</v>
+        <v>0.36551047740241704</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -4810,7 +4814,7 @@
       </c>
       <c r="P38" s="39">
         <f>1-$K$27/$P$34</f>
-        <v>0.14493952061648663</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -4819,7 +4823,7 @@
       </c>
       <c r="P39" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/($P$33+N28/(1+N28)*P32)</f>
-        <v>0.36581818826824364</v>
+        <v>0.36551047740241704</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -4828,7 +4832,7 @@
       </c>
       <c r="P40" s="39">
         <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
-        <v>0.14493952061648663</v>
+        <v>0.14493952061648685</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -4855,7 +4859,7 @@
       </c>
       <c r="P44" s="75">
         <f>($Y$23*$P$33+$Q$28*$P$34)/($P$33+$P$34)</f>
-        <v>2.6287201769563748</v>
+        <v>2.6239848182679681</v>
       </c>
     </row>
   </sheetData>
@@ -4917,7 +4921,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -5070,7 +5074,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -5243,7 +5247,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -5415,7 +5419,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -5584,7 +5588,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -5753,7 +5757,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -5922,7 +5926,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -6091,7 +6095,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -6260,7 +6264,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -6441,7 +6445,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6527,7 +6531,7 @@
       <c r="AQ14" s="35"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
+      <c r="A15" s="111"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -6632,7 +6636,7 @@
       <c r="AQ15" s="37"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+      <c r="A16" s="111"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -6739,7 +6743,7 @@
       <c r="AQ16" s="37"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
+      <c r="A17" s="111"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -6834,7 +6838,7 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="111"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -6928,7 +6932,7 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
+      <c r="A19" s="111"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -7027,7 +7031,7 @@
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+      <c r="A20" s="111"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -7218,7 +7222,7 @@
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -7275,7 +7279,7 @@
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
+      <c r="A26" s="111"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -7323,7 +7327,7 @@
       <c r="AS26" s="9"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
+      <c r="A27" s="111"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -7378,7 +7382,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="111" t="s">
+      <c r="R27" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -7429,7 +7433,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="111"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -7448,7 +7452,7 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="111"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -7483,7 +7487,7 @@
         <f>K27+SUM(I15:I20)+SUM(AJ5:AJ12)</f>
         <v>6.5196256600668162E-2</v>
       </c>
-      <c r="R30" s="111"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -7524,7 +7528,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="111"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>
@@ -7568,7 +7572,7 @@
         <f>E26*E31+F26*F31</f>
         <v>1.2264765171385552E-2</v>
       </c>
-      <c r="R32" s="111"/>
+      <c r="R32" s="112"/>
       <c r="S32" s="11" t="s">
         <v>52</v>
       </c>
@@ -7701,10 +7705,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BE66"/>
+  <dimension ref="A1:BD66"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7712,11 +7716,11 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="12" customWidth="1"/>
+    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>113</v>
       </c>
@@ -7730,7 +7734,7 @@
       <c r="W1" s="106"/>
       <c r="X1" s="107"/>
     </row>
-    <row r="2" spans="1:57" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>113</v>
       </c>
@@ -7745,8 +7749,8 @@
       <c r="W2" s="108"/>
       <c r="X2" s="108"/>
     </row>
-    <row r="4" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+    <row r="4" spans="1:56" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -7866,58 +7870,55 @@
       <c r="AN4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AO4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP4" s="114" t="s">
+      <c r="AO4" s="110" t="s">
         <v>184</v>
       </c>
+      <c r="AP4" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="AQ4" s="14" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AS4" s="14" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="AT4" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV4" s="14" t="s">
         <v>165</v>
       </c>
+      <c r="AV4" s="99" t="s">
+        <v>166</v>
+      </c>
       <c r="AW4" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX4" s="99" t="s">
         <v>174</v>
       </c>
+      <c r="AX4" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="AY4" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AZ4" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BA4" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BB4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8" t="s">
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -7992,8 +7993,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y5">
-        <f>INPUTS!Y5</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5">
         <f>INPUTS!Z5</f>
@@ -8012,27 +8012,27 @@
         <v>33</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AE12" si="0">AK5*$AR$37</f>
+        <f t="shared" ref="AE5:AE12" si="0">AK5*$AQ$37</f>
         <v>12.053251888473643</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF12" si="1">AK5*$AT5</f>
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AS5</f>
         <v>1.0111902874411887</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" ref="AG5:AG12" si="2">AK5*$AW5</f>
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$AV5</f>
         <v>6.0266259442368213</v>
       </c>
       <c r="AH5" s="33">
-        <f t="shared" ref="AH5:AH12" si="3">AK5*$AU5</f>
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AT5</f>
         <v>10.111902874411886</v>
       </c>
       <c r="AI5" s="1">
-        <f>BB5</f>
+        <f>BA5</f>
         <v>2.0477283347659267E-3</v>
       </c>
       <c r="AJ5" s="1">
-        <f>BE5</f>
+        <f>BD5</f>
         <v>1.3244862745926676E-6</v>
       </c>
       <c r="AK5" s="1">
@@ -8052,70 +8052,66 @@
         <v>1.0245264105202596E-5</v>
       </c>
       <c r="AO5">
-        <f>INPUTS!AO5</f>
-        <v>1600</v>
-      </c>
-      <c r="AP5">
         <f>INPUTS!AP5</f>
-        <v>1600</v>
-      </c>
-      <c r="AQ5" s="70">
-        <f>AK5+(AE5+AG5)*$E$53+AF5*$F$53+AH5*$J$53</f>
+        <v>1800</v>
+      </c>
+      <c r="AP5" s="70">
+        <f t="shared" ref="AP5:AP34" si="4">AK5+(AE5+AG5)*$E$53+AF5*$F$53+AH5*$J$53</f>
         <v>3.6080123558944709E-3</v>
       </c>
-      <c r="AR5" s="102">
-        <f>(1-AK5/AQ5)*100</f>
+      <c r="AQ5" s="102">
+        <f t="shared" ref="AQ5:AQ34" si="5">(1-AK5/AP5)*100</f>
         <v>43.208264858268933</v>
       </c>
-      <c r="AS5" s="70">
+      <c r="AR5" s="70">
         <f>INPUTS!AS5</f>
         <v>4.5999999999999996</v>
       </c>
+      <c r="AS5" s="70">
+        <f t="shared" ref="AS5:AS12" si="6">(($AR5/100)*(1+($AQ$37+$AV5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AR5/100))</f>
+        <v>493.49156696102204</v>
+      </c>
       <c r="AT5" s="70">
-        <f t="shared" ref="AT5:AT12" si="4">(($AS5/100)*(1+($AR$37+$AW5)*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$AS5/100))</f>
-        <v>493.49156696102204</v>
-      </c>
-      <c r="AU5" s="70">
-        <f t="shared" ref="AU5:AU12" si="5">$AT5/$X$45</f>
+        <f t="shared" ref="AT5:AT12" si="7">$AS5/$X$45</f>
         <v>4934.91566961022</v>
       </c>
-      <c r="AV5" s="15">
+      <c r="AU5" s="15">
         <v>5</v>
       </c>
+      <c r="AV5" s="84">
+        <f t="shared" ref="AV5:AV34" si="8">$AU5/100/(1-$AW5/100)*$X$54*10^6/$X$52</f>
+        <v>2941.1764705882351</v>
+      </c>
       <c r="AW5" s="84">
-        <f t="shared" ref="AW5:AW34" si="6">$AV5/100/(1-$AX5/100)*$X$54*10^6/$X$52</f>
-        <v>2941.1764705882351</v>
-      </c>
-      <c r="AX5" s="84">
         <v>40</v>
       </c>
-      <c r="AY5" s="9">
+      <c r="AX5" s="9">
         <v>851425</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="AY5" s="10">
         <f>$T$49+$T$50*$T$52*(J5)^$T$51</f>
         <v>9.1058115591388438E-4</v>
       </c>
-      <c r="BA5" s="9">
-        <f t="shared" ref="BA5:BA12" si="7">J5*Z5</f>
+      <c r="AZ5" s="9">
+        <f t="shared" ref="AZ5:AZ12" si="9">J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
+      <c r="BA5" s="10">
+        <f>((AZ5-AY5)/($T$53-AX5))*(F5-$T$53)+AZ5</f>
+        <v>2.0477283347659267E-3</v>
+      </c>
       <c r="BB5" s="10">
-        <f>((BA5-AZ5)/($T$53-AY5))*(F5-$T$53)+BA5</f>
-        <v>2.0477283347659267E-3</v>
-      </c>
-      <c r="BC5" s="10">
         <f>$T$49+$T$50*0.6*(L5)^$T$51</f>
         <v>3.0208025791752585E-3</v>
       </c>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9">
-        <f t="shared" ref="BE5:BE12" si="8">$AZ$42*$AY$44*$AY$46*(M5)^$AY$43</f>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9">
+        <f t="shared" ref="BD5:BD12" si="10">$AY$42*$AX$44*$AX$46*(M5)^$AX$43</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="9">(10-D6)*$E$2</f>
+        <f t="shared" ref="E6:E11" si="11">(10-D6)*$E$2</f>
         <v>3287520</v>
       </c>
       <c r="F6">
@@ -8146,7 +8142,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K6" s="48">
-        <f t="shared" ref="K6:K12" si="10">J6-M6</f>
+        <f t="shared" ref="K6:K12" si="12">J6-M6</f>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L6" s="48">
@@ -8225,94 +8221,90 @@
         <v>4.7926386573102988</v>
       </c>
       <c r="AI6" s="1">
-        <f>BC6</f>
+        <f>BB6</f>
         <v>4.9598090847580579E-4</v>
       </c>
       <c r="AJ6" s="1">
-        <f>BE6</f>
+        <f>BD6</f>
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6:AK12" si="11">AI6+AJ6</f>
+        <f t="shared" ref="AK6:AK12" si="13">AI6+AJ6</f>
         <v>4.9614970591612046E-4</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6:AM12" si="12">AI6*0.005</f>
+        <f t="shared" ref="AL6:AM12" si="14">AI6*0.005</f>
         <v>2.479904542379029E-6</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN12" si="13">AL6+AM6</f>
+        <f t="shared" ref="AN6:AN12" si="15">AL6+AM6</f>
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO6">
-        <f>INPUTS!AO6</f>
-        <v>1600</v>
-      </c>
-      <c r="AP6">
         <f>INPUTS!AP6</f>
-        <v>1600</v>
-      </c>
-      <c r="AQ6" s="70">
-        <f t="shared" ref="AQ6:AQ34" si="14">AK6+(AE6+AG6)*$E$53+AF6*$F$53+AH6*$J$53</f>
+        <v>1800</v>
+      </c>
+      <c r="AP6" s="70">
+        <f t="shared" si="4"/>
         <v>1.1736520592639877E-3</v>
       </c>
-      <c r="AR6" s="102">
-        <f>(1-AK6/AQ6)*100</f>
+      <c r="AQ6" s="102">
+        <f t="shared" si="5"/>
         <v>57.725997070438204</v>
       </c>
-      <c r="AS6" s="70">
+      <c r="AR6" s="70">
         <f>INPUTS!AS6</f>
         <v>6.5</v>
       </c>
+      <c r="AS6" s="70">
+        <f t="shared" si="6"/>
+        <v>965.96623965762194</v>
+      </c>
       <c r="AT6" s="70">
-        <f t="shared" si="4"/>
-        <v>965.96623965762194</v>
-      </c>
-      <c r="AU6" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9659.6623965762192</v>
       </c>
-      <c r="AV6" s="15">
+      <c r="AU6" s="15">
         <v>8</v>
       </c>
+      <c r="AV6" s="84">
+        <f t="shared" si="8"/>
+        <v>7058.8235294117649</v>
+      </c>
       <c r="AW6" s="84">
-        <f t="shared" si="6"/>
-        <v>7058.8235294117649</v>
-      </c>
-      <c r="AX6" s="84">
         <v>60</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AX6" s="9">
         <v>818263</v>
       </c>
-      <c r="AZ6" s="10">
+      <c r="AY6" s="10">
         <f>$T$49+$T$50*$T$52*(J6)^$T$51</f>
         <v>9.1017858127080242E-4</v>
       </c>
-      <c r="BA6" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ6" s="9" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB6" s="10" t="e">
-        <f>((BA6-AZ6)/($T$53-AY6))*(F6-$T$53)+BA6</f>
+      <c r="BA6" s="10" t="e">
+        <f>((AZ6-AY6)/($T$53-AX6))*(F6-$T$53)+AZ6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC6" s="10">
+      <c r="BB6" s="10">
         <f>$T$49+$T$50*0.5*(L6)^$T$51</f>
         <v>4.9598090847580579E-4</v>
       </c>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9">
-        <f t="shared" si="8"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9">
+        <f t="shared" si="10"/>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -8323,7 +8315,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2739600</v>
       </c>
       <c r="F7">
@@ -8343,7 +8335,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K7" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L7" s="48">
@@ -8422,91 +8414,87 @@
         <v>0.21145753411309956</v>
       </c>
       <c r="AI7" s="1">
-        <f>BC7</f>
+        <f>BB7</f>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO7">
-        <f>INPUTS!AO7</f>
-        <v>1600</v>
-      </c>
-      <c r="AP7" t="str">
         <f>INPUTS!AP7</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ7" s="70">
-        <f t="shared" si="14"/>
+        <v>1800</v>
+      </c>
+      <c r="AP7" s="70">
+        <f t="shared" si="4"/>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AR7" s="102">
-        <f t="shared" ref="AR7:AR34" si="15">(1-AK7/AQ7)*100</f>
+      <c r="AQ7" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS7" s="70">
+      <c r="AR7" s="70">
         <f>INPUTS!AS7</f>
         <v>9.5</v>
       </c>
-      <c r="AT7" s="70">
-        <f t="shared" si="4"/>
+      <c r="AS7" s="70">
+        <f t="shared" si="6"/>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AU7" s="71">
-        <f t="shared" si="5"/>
+      <c r="AT7" s="71">
+        <f t="shared" si="7"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AV7" s="15">
+      <c r="AU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW7" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX7" s="84">
         <v>68</v>
       </c>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="10" t="e">
-        <f t="shared" ref="AZ7:AZ12" si="16">$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="10" t="e">
+        <f t="shared" ref="AY7:AY12" si="16">$T$49+$T$50*$T$52*(T7*$T$54)^$T$51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BA7" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ7" s="9" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB7" s="10" t="e">
-        <f t="shared" ref="BB7:BB12" si="17">AZ7+((BA7-AZ7)/$T$53)*F7</f>
+      <c r="BA7" s="10" t="e">
+        <f t="shared" ref="BA7:BA12" si="17">AY7+((AZ7-AY7)/$T$53)*F7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BC7" s="10">
-        <f t="shared" ref="BC7:BC12" si="18">$T$49+$T$50*0.3*(L7)^$T$51</f>
+      <c r="BB7" s="10">
+        <f t="shared" ref="BB7:BB12" si="18">$T$49+$T$50*0.3*(L7)^$T$51</f>
         <v>1.1188589859167832E-5</v>
       </c>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -8517,7 +8505,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2191680</v>
       </c>
       <c r="F8">
@@ -8537,7 +8525,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K8" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L8" s="48">
@@ -8616,91 +8604,87 @@
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="20">BC8</f>
+        <f t="shared" ref="AI8:AI12" si="20">BB8</f>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO8">
-        <f>INPUTS!AO8</f>
-        <v>1600</v>
-      </c>
-      <c r="AP8" t="str">
+      <c r="AO8" t="str">
         <f>INPUTS!AP8</f>
         <v>NA</v>
       </c>
-      <c r="AQ8" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP8" s="70">
+        <f t="shared" si="4"/>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AR8" s="102">
-        <f>(1-AK8/AQ8)*100</f>
+      <c r="AQ8" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS8" s="70">
+      <c r="AR8" s="70">
         <f>INPUTS!AS8</f>
         <v>9.5</v>
       </c>
+      <c r="AS8" s="70">
+        <f t="shared" si="6"/>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT8" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="7"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU8" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV8" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW8" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX8" s="84">
         <v>68</v>
       </c>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="10" t="e">
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA8" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ8" s="9" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB8" s="10" t="e">
+      <c r="BA8" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BC8" s="10">
+      <c r="BB8" s="10">
         <f t="shared" si="18"/>
         <v>3.0451496811426225E-6</v>
       </c>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -8711,7 +8695,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1643760</v>
       </c>
       <c r="F9">
@@ -8731,7 +8715,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K9" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L9" s="48">
@@ -8817,84 +8801,80 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO9">
-        <f>INPUTS!AO9</f>
-        <v>1600</v>
-      </c>
-      <c r="AP9" t="str">
+      <c r="AO9" t="str">
         <f>INPUTS!AP9</f>
         <v>NA</v>
       </c>
-      <c r="AQ9" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP9" s="70">
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AR9" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ9" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS9" s="70">
+      <c r="AR9" s="70">
         <f>INPUTS!AS9</f>
         <v>9.5</v>
       </c>
+      <c r="AS9" s="70">
+        <f t="shared" si="6"/>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT9" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="7"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU9" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV9" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW9" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX9" s="84">
         <v>68</v>
       </c>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="10" t="e">
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA9" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ9" s="9" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB9" s="10" t="e">
+      <c r="BA9" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BC9" s="10">
+      <c r="BB9" s="10">
         <f t="shared" si="18"/>
         <v>1.0530263176114436E-6</v>
       </c>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -8905,7 +8885,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1095840</v>
       </c>
       <c r="F10">
@@ -8925,7 +8905,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K10" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L10" s="48">
@@ -9011,84 +8991,80 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.6675135142830591E-7</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3337567571415298E-9</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO10">
-        <f>INPUTS!AO10</f>
-        <v>1600</v>
-      </c>
-      <c r="AP10" t="str">
+      <c r="AO10" t="str">
         <f>INPUTS!AP10</f>
         <v>NA</v>
       </c>
-      <c r="AQ10" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP10" s="70">
+        <f t="shared" si="4"/>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AR10" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ10" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS10" s="70">
+      <c r="AR10" s="70">
         <f>INPUTS!AS10</f>
         <v>9.5</v>
       </c>
+      <c r="AS10" s="70">
+        <f t="shared" si="6"/>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT10" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="7"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU10" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV10" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW10" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX10" s="84">
         <v>68</v>
       </c>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="10" t="e">
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA10" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ10" s="9" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB10" s="10" t="e">
+      <c r="BA10" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BC10" s="10">
+      <c r="BB10" s="10">
         <f t="shared" si="18"/>
         <v>4.6675135142830591E-7</v>
       </c>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -9099,7 +9075,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>547920</v>
       </c>
       <c r="F11">
@@ -9119,7 +9095,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K11" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L11" s="49">
@@ -9205,84 +9181,80 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO11">
-        <f>INPUTS!AO11</f>
-        <v>1600</v>
-      </c>
-      <c r="AP11" t="str">
+      <c r="AO11" t="str">
         <f>INPUTS!AP11</f>
         <v>NA</v>
       </c>
-      <c r="AQ11" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP11" s="70">
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AR11" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ11" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS11" s="70">
+      <c r="AR11" s="70">
         <f>INPUTS!AS11</f>
         <v>9.5</v>
       </c>
+      <c r="AS11" s="70">
+        <f t="shared" si="6"/>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT11" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="7"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU11" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV11" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW11" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX11" s="84">
         <v>68</v>
       </c>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="10" t="e">
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA11" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ11" s="9" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB11" s="10" t="e">
+      <c r="BA11" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BC11" s="10">
+      <c r="BB11" s="10">
         <f t="shared" si="18"/>
         <v>1.7931029397037642E-7</v>
       </c>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -9313,7 +9285,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K12" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.894E-2</v>
       </c>
       <c r="L12" s="49">
@@ -9399,84 +9371,80 @@
         <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO12">
-        <f>INPUTS!AO12</f>
-        <v>1600</v>
-      </c>
-      <c r="AP12" t="str">
+      <c r="AO12" t="str">
         <f>INPUTS!AP12</f>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP12" s="70">
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AR12" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ12" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS12" s="70">
+      <c r="AR12" s="70">
         <f>INPUTS!AS12</f>
         <v>9.5</v>
       </c>
+      <c r="AS12" s="70">
+        <f t="shared" si="6"/>
+        <v>1889.9390966577716</v>
+      </c>
       <c r="AT12" s="70">
-        <f t="shared" si="4"/>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="7"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU12" s="70">
-        <f t="shared" si="5"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV12" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW12" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX12" s="84">
         <v>68</v>
       </c>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="10" t="e">
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="10" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA12" s="9" t="e">
-        <f t="shared" si="7"/>
+      <c r="AZ12" s="9" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB12" s="10" t="e">
+      <c r="BA12" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BC12" s="10">
+      <c r="BB12" s="10">
         <f t="shared" si="18"/>
         <v>1.2583647059445005E-7</v>
       </c>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
       <c r="B13">
         <f>B6</f>
         <v>1</v>
@@ -9493,7 +9461,7 @@
         <v>3287520</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:AO19" si="21">F6</f>
+        <f t="shared" ref="F13:AN19" si="21">F6</f>
         <v>776406</v>
       </c>
       <c r="G13">
@@ -9633,54 +9601,50 @@
         <v>2.4807485295806025E-6</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="21"/>
-        <v>1600</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" ref="AP13:AP34" si="24">AP6</f>
-        <v>1600</v>
-      </c>
-      <c r="AQ13" s="70">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AO13:AO34" si="24">AO6</f>
+        <v>1800</v>
+      </c>
+      <c r="AP13" s="70">
+        <f t="shared" si="4"/>
         <v>1.1736520592639877E-3</v>
       </c>
-      <c r="AR13" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ13" s="102">
+        <f t="shared" si="5"/>
         <v>57.725997070438204</v>
       </c>
+      <c r="AR13" s="70">
+        <f t="shared" ref="AR13" si="25">AR6</f>
+        <v>6.5</v>
+      </c>
       <c r="AS13" s="70">
-        <f t="shared" ref="AS13" si="25">AS6</f>
-        <v>6.5</v>
+        <f t="shared" ref="AS13" si="26">AS6</f>
+        <v>965.96623965762194</v>
       </c>
       <c r="AT13" s="70">
-        <f t="shared" ref="AT13" si="26">AT6</f>
-        <v>965.96623965762194</v>
+        <f>AT6</f>
+        <v>9659.6623965762192</v>
       </c>
       <c r="AU13" s="70">
-        <f>AU6</f>
-        <v>9659.6623965762192</v>
-      </c>
-      <c r="AV13" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW13" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX13" s="84">
-        <f>AX6</f>
+        <f>AW6</f>
         <v>60</v>
       </c>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="10"/>
       <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
+      <c r="BC13" s="9"/>
       <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
       <c r="B14">
         <f t="shared" ref="B14:B19" si="27">B7</f>
         <v>1</v>
@@ -9837,55 +9801,51 @@
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO14">
-        <f t="shared" ref="AO14:AP14" si="32">AO7</f>
-        <v>1600</v>
-      </c>
-      <c r="AP14" t="str">
         <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="70">
-        <f t="shared" si="14"/>
+        <v>1800</v>
+      </c>
+      <c r="AP14" s="70">
+        <f t="shared" si="4"/>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AR14" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ14" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR14" s="70">
+        <f t="shared" ref="AR14:AT14" si="32">AR7</f>
+        <v>9.5</v>
+      </c>
       <c r="AS14" s="70">
-        <f t="shared" ref="AS14:AU14" si="33">AS7</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS14" si="33">AS7</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT14" s="70">
-        <f t="shared" ref="AT14" si="34">AT7</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="32"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU14" s="70">
-        <f t="shared" si="33"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV14" s="70">
-        <f t="shared" ref="AV14" si="35">AV7</f>
+        <f t="shared" ref="AU14" si="34">AU7</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW14" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX14" s="84">
-        <f t="shared" ref="AX14:AX19" si="36">AX7</f>
+        <f t="shared" ref="AW14:AW19" si="35">AW7</f>
         <v>68</v>
       </c>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
+      <c r="BC14" s="9"/>
       <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
       <c r="B15">
         <f t="shared" si="27"/>
         <v>1</v>
@@ -9970,7 +9930,7 @@
         <v>NA</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15" si="37">W8</f>
+        <f t="shared" ref="W15" si="36">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X15" t="str">
@@ -10010,7 +9970,7 @@
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG15">
-        <f t="shared" ref="AG15" si="38">AG8</f>
+        <f t="shared" ref="AG15" si="37">AG8</f>
         <v>0</v>
       </c>
       <c r="AH15">
@@ -10041,56 +10001,52 @@
         <f t="shared" si="21"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO15">
-        <f t="shared" ref="AO15:AP15" si="39">AO8</f>
-        <v>1600</v>
-      </c>
-      <c r="AP15" t="str">
+      <c r="AO15" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ15" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP15" s="70">
+        <f t="shared" si="4"/>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AR15" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ15" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR15" s="70">
+        <f t="shared" ref="AR15:AT15" si="38">AR8</f>
+        <v>9.5</v>
+      </c>
       <c r="AS15" s="70">
-        <f t="shared" ref="AS15:AU15" si="40">AS8</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS15" si="39">AS8</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT15" s="70">
-        <f t="shared" ref="AT15" si="41">AT8</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="38"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU15" s="70">
-        <f t="shared" si="40"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV15" s="70">
-        <f t="shared" ref="AV15" si="42">AV8</f>
+        <f t="shared" ref="AU15" si="40">AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW15" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX15" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="10"/>
       <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
+      <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
       <c r="B16">
         <f t="shared" si="27"/>
         <v>1</v>
@@ -10175,7 +10131,7 @@
         <v>NA</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16" si="43">W9</f>
+        <f t="shared" ref="W16" si="41">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X16" t="str">
@@ -10215,7 +10171,7 @@
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG16">
-        <f t="shared" ref="AG16" si="44">AG9</f>
+        <f t="shared" ref="AG16" si="42">AG9</f>
         <v>0</v>
       </c>
       <c r="AH16">
@@ -10246,56 +10202,52 @@
         <f t="shared" si="21"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO16">
-        <f t="shared" ref="AO16:AP16" si="45">AO9</f>
-        <v>1600</v>
-      </c>
-      <c r="AP16" t="str">
+      <c r="AO16" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ16" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP16" s="70">
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AR16" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ16" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR16" s="70">
+        <f t="shared" ref="AR16:AT16" si="43">AR9</f>
+        <v>9.5</v>
+      </c>
       <c r="AS16" s="70">
-        <f t="shared" ref="AS16:AU16" si="46">AS9</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS16" si="44">AS9</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT16" s="70">
-        <f t="shared" ref="AT16" si="47">AT9</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="43"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU16" s="70">
-        <f t="shared" si="46"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV16" s="70">
-        <f t="shared" ref="AV16" si="48">AV9</f>
+        <f t="shared" ref="AU16" si="45">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW16" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX16" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="10"/>
       <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
+      <c r="BC16" s="9"/>
       <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="111"/>
       <c r="B17">
         <f t="shared" si="27"/>
         <v>1</v>
@@ -10380,7 +10332,7 @@
         <v>NA</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17" si="49">W10</f>
+        <f t="shared" ref="W17" si="46">W10</f>
         <v>9.1658819653476345E-7</v>
       </c>
       <c r="X17" t="str">
@@ -10420,7 +10372,7 @@
         <v>8.8213162748220658E-4</v>
       </c>
       <c r="AG17">
-        <f t="shared" ref="AG17" si="50">AG10</f>
+        <f t="shared" ref="AG17" si="47">AG10</f>
         <v>0</v>
       </c>
       <c r="AH17">
@@ -10451,56 +10403,52 @@
         <f t="shared" si="21"/>
         <v>2.3337567571415298E-9</v>
       </c>
-      <c r="AO17">
-        <f t="shared" ref="AO17:AP17" si="51">AO10</f>
-        <v>1600</v>
-      </c>
-      <c r="AP17" t="str">
+      <c r="AO17" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ17" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP17" s="70">
+        <f t="shared" si="4"/>
         <v>1.4545476567305404E-6</v>
       </c>
-      <c r="AR17" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ17" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR17" s="70">
+        <f t="shared" ref="AR17:AT17" si="48">AR10</f>
+        <v>9.5</v>
+      </c>
       <c r="AS17" s="70">
-        <f t="shared" ref="AS17:AU17" si="52">AS10</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS17" si="49">AS10</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT17" s="70">
-        <f t="shared" ref="AT17" si="53">AT10</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="48"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU17" s="70">
-        <f t="shared" si="52"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV17" s="70">
-        <f t="shared" ref="AV17" si="54">AV10</f>
+        <f t="shared" ref="AU17" si="50">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW17" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX17" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="10"/>
       <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
+      <c r="BC17" s="9"/>
       <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="111"/>
       <c r="B18">
         <f t="shared" si="27"/>
         <v>1</v>
@@ -10585,7 +10533,7 @@
         <v>NA</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18" si="55">W11</f>
+        <f t="shared" ref="W18" si="51">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X18" t="str">
@@ -10625,7 +10573,7 @@
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG18">
-        <f t="shared" ref="AG18" si="56">AG11</f>
+        <f t="shared" ref="AG18" si="52">AG11</f>
         <v>0</v>
       </c>
       <c r="AH18">
@@ -10656,56 +10604,52 @@
         <f t="shared" si="21"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO18">
-        <f t="shared" ref="AO18:AP18" si="57">AO11</f>
-        <v>1600</v>
-      </c>
-      <c r="AP18" t="str">
+      <c r="AO18" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ18" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP18" s="70">
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AR18" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ18" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR18" s="70">
+        <f t="shared" ref="AR18:AT18" si="53">AR11</f>
+        <v>9.5</v>
+      </c>
       <c r="AS18" s="70">
-        <f t="shared" ref="AS18:AU18" si="58">AS11</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS18" si="54">AS11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT18" s="70">
-        <f t="shared" ref="AT18" si="59">AT11</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="53"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU18" s="70">
-        <f t="shared" si="58"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV18" s="70">
-        <f t="shared" ref="AV18" si="60">AV11</f>
+        <f t="shared" ref="AU18" si="55">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW18" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX18" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="10"/>
       <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
+      <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="111"/>
       <c r="B19">
         <f t="shared" si="27"/>
         <v>1</v>
@@ -10790,7 +10734,7 @@
         <v>NA</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" ref="W19" si="61">W12</f>
+        <f t="shared" ref="W19" si="56">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X19" t="str">
@@ -10830,7 +10774,7 @@
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG19">
-        <f t="shared" ref="AG19" si="62">AG12</f>
+        <f t="shared" ref="AG19" si="57">AG12</f>
         <v>0</v>
       </c>
       <c r="AH19">
@@ -10861,56 +10805,52 @@
         <f t="shared" si="21"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO19">
-        <f t="shared" ref="AO19:AP19" si="63">AO12</f>
-        <v>1600</v>
-      </c>
-      <c r="AP19" t="str">
+      <c r="AO19" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ19" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP19" s="70">
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AR19" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ19" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR19" s="70">
+        <f t="shared" ref="AR19:AT19" si="58">AR12</f>
+        <v>9.5</v>
+      </c>
       <c r="AS19" s="70">
-        <f t="shared" ref="AS19:AU19" si="64">AS12</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS19" si="59">AS12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT19" s="70">
-        <f t="shared" ref="AT19" si="65">AT12</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="58"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU19" s="70">
-        <f t="shared" si="64"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV19" s="70">
-        <f t="shared" ref="AV19" si="66">AV12</f>
+        <f t="shared" ref="AU19" si="60">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW19" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX19" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="10"/>
       <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
+      <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
       <c r="B20">
         <f>B7</f>
         <v>1</v>
@@ -10927,1222 +10867,1198 @@
         <v>2739600</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:AN25" si="67">F7</f>
+        <f t="shared" ref="F20:AN25" si="61">F7</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>True</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="J20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>2E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="68">W7</f>
+        <f t="shared" ref="W20" si="62">W7</f>
         <v>4.7804505939809229E-3</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>NA</v>
       </c>
       <c r="AD20" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>6.5815234465693123E-2</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>2.1145753411309958E-2</v>
       </c>
       <c r="AG20">
-        <f t="shared" ref="AG20" si="69">AG7</f>
+        <f t="shared" ref="AG20" si="63">AG7</f>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.21145753411309956</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>1.1188589859167832E-5</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>5.5942949295839161E-8</v>
       </c>
       <c r="AO20">
-        <f t="shared" ref="AO20:AP20" si="70">AO13</f>
-        <v>1600</v>
-      </c>
-      <c r="AP20">
         <f t="shared" si="24"/>
-        <v>1600</v>
-      </c>
-      <c r="AQ20" s="70">
-        <f t="shared" si="14"/>
+        <v>1800</v>
+      </c>
+      <c r="AP20" s="70">
+        <f t="shared" si="4"/>
         <v>3.4867252364606023E-5</v>
       </c>
-      <c r="AR20" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ20" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR20" s="70">
+        <f t="shared" ref="AR20:AT20" si="64">AR7</f>
+        <v>9.5</v>
+      </c>
       <c r="AS20" s="70">
-        <f t="shared" ref="AS20:AU20" si="71">AS7</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS20" si="65">AS7</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT20" s="70">
-        <f t="shared" ref="AT20" si="72">AT7</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="64"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU20" s="70">
-        <f t="shared" si="71"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV20" s="70">
-        <f t="shared" ref="AV20" si="73">AV7</f>
+        <f t="shared" ref="AU20" si="66">AU7</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW20" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX20" s="84">
-        <f>AX7</f>
+        <f>AW7</f>
         <v>68</v>
       </c>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="10"/>
       <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
+      <c r="BC20" s="9"/>
       <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" s="111"/>
       <c r="B21">
-        <f t="shared" ref="B21:B34" si="74">B8</f>
+        <f t="shared" ref="B21:B34" si="67">B8</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D25" si="75">D8-4</f>
+        <f t="shared" ref="D21:D25" si="68">D8-4</f>
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:T25" si="76">E8</f>
+        <f t="shared" ref="E21:T25" si="69">E8</f>
         <v>2191680</v>
       </c>
       <c r="F21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>True</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>False</v>
       </c>
       <c r="J21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>2.894E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>2.894E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>NA</v>
       </c>
       <c r="U21" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" ref="W21" si="70">W8</f>
+        <v>6.4152407049273701E-6</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="61"/>
+        <v>1.7912645183191897E-2</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="61"/>
+        <v>5.7551474375663898E-3</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" ref="AG21" si="71">AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="61"/>
+        <v>5.7551474375663887E-2</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="61"/>
+        <v>3.0451496811426225E-6</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="61"/>
+        <v>3.0451496811426225E-6</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="61"/>
+        <v>1.5225748405713114E-8</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="61"/>
+        <v>1.5225748405713114E-8</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="24"/>
+        <v>1800</v>
+      </c>
+      <c r="AP21" s="70">
+        <f t="shared" si="4"/>
+        <v>9.4896679346414427E-6</v>
+      </c>
+      <c r="AQ21" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR21" s="70">
+        <f t="shared" ref="AR21:AT21" si="72">AR8</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS21" s="70">
+        <f t="shared" ref="AS21" si="73">AS8</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT21" s="70">
+        <f t="shared" si="72"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU21" s="70">
+        <f t="shared" ref="AU21" si="74">AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="84">
+        <f t="shared" ref="AW21:AW25" si="75">AW8</f>
+        <v>68</v>
+      </c>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" s="111"/>
+      <c r="B22">
         <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="V21" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" ref="W21" si="77">W8</f>
-        <v>6.4152407049273701E-6</v>
-      </c>
-      <c r="X21" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Z21" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AA21" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AC21" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AD21" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="67"/>
-        <v>1.7912645183191897E-2</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="67"/>
-        <v>5.7551474375663898E-3</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" ref="AG21" si="78">AG8</f>
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="67"/>
-        <v>5.7551474375663887E-2</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="67"/>
-        <v>3.0451496811426225E-6</v>
-      </c>
-      <c r="AJ21">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="67"/>
-        <v>3.0451496811426225E-6</v>
-      </c>
-      <c r="AL21">
-        <f t="shared" si="67"/>
-        <v>1.5225748405713114E-8</v>
-      </c>
-      <c r="AM21">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <f t="shared" si="67"/>
-        <v>1.5225748405713114E-8</v>
-      </c>
-      <c r="AO21">
-        <f t="shared" ref="AO21:AP21" si="79">AO14</f>
-        <v>1600</v>
-      </c>
-      <c r="AP21" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ21" s="70">
-        <f t="shared" si="14"/>
-        <v>9.4896679346414427E-6</v>
-      </c>
-      <c r="AR21" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS21" s="70">
-        <f t="shared" ref="AS21:AU21" si="80">AS8</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT21" s="70">
-        <f t="shared" ref="AT21" si="81">AT8</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU21" s="70">
-        <f t="shared" si="80"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV21" s="70">
-        <f t="shared" ref="AV21" si="82">AV8</f>
-        <v>0</v>
-      </c>
-      <c r="AW21" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX21" s="84">
-        <f t="shared" ref="AX21:AX25" si="83">AX8</f>
-        <v>68</v>
-      </c>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22">
-        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="69"/>
+        <v>1643760</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="61"/>
+        <v>True</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="61"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="61"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="61"/>
+        <v>3.1E-4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" ref="W22" si="76">W9</f>
+        <v>2.3349332116543619E-6</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="61"/>
+        <v>6.1942724565379036E-3</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="61"/>
+        <v>1.9901556074634315E-3</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" ref="AG22" si="77">AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="61"/>
+        <v>1.9901556074634313E-2</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="61"/>
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="61"/>
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="61"/>
+        <v>5.2651315880572185E-9</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="61"/>
+        <v>5.2651315880572185E-9</v>
+      </c>
+      <c r="AO22" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AP22" s="70">
+        <f t="shared" si="4"/>
+        <v>3.281569422499217E-6</v>
+      </c>
+      <c r="AQ22" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR22" s="70">
+        <f t="shared" ref="AR22:AT22" si="78">AR9</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS22" s="70">
+        <f t="shared" ref="AS22" si="79">AS9</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT22" s="70">
+        <f t="shared" si="78"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU22" s="70">
+        <f t="shared" ref="AU22" si="80">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="84">
         <f t="shared" si="75"/>
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="76"/>
-        <v>1643760</v>
-      </c>
-      <c r="F22">
+        <v>68</v>
+      </c>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" s="111"/>
+      <c r="B23">
         <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="67"/>
-        <v>True</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="67"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="67"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="67"/>
-        <v>3.1E-4</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="W22" s="1">
-        <f t="shared" ref="W22" si="84">W9</f>
-        <v>2.3349332116543619E-6</v>
-      </c>
-      <c r="X22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Z22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AA22" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AB22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AC22" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AD22" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="67"/>
-        <v>6.1942724565379036E-3</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="67"/>
-        <v>1.9901556074634315E-3</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" ref="AG22" si="85">AG9</f>
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="67"/>
-        <v>1.9901556074634313E-2</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="67"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="67"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AL22">
-        <f t="shared" si="67"/>
-        <v>5.2651315880572185E-9</v>
-      </c>
-      <c r="AM22">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="67"/>
-        <v>5.2651315880572185E-9</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" ref="AO22:AP22" si="86">AO15</f>
-        <v>1600</v>
-      </c>
-      <c r="AP22" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ22" s="70">
-        <f t="shared" si="14"/>
-        <v>3.281569422499217E-6</v>
-      </c>
-      <c r="AR22" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS22" s="70">
-        <f t="shared" ref="AS22:AU22" si="87">AS9</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT22" s="70">
-        <f t="shared" ref="AT22" si="88">AT9</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU22" s="70">
-        <f t="shared" si="87"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV22" s="70">
-        <f t="shared" ref="AV22" si="89">AV9</f>
-        <v>0</v>
-      </c>
-      <c r="AW22" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX22" s="84">
-        <f t="shared" si="83"/>
-        <v>68</v>
-      </c>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23">
-        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23">
+        <f t="shared" si="68"/>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="69"/>
+        <v>1095840</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="61"/>
+        <v>True</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="61"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="61"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="61"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23" si="81">W10</f>
+        <v>9.1658819653476345E-7</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="61"/>
+        <v>2.7455961848723877E-3</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="61"/>
+        <v>8.8213162748220658E-4</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" ref="AG23" si="82">AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="61"/>
+        <v>8.8213162748220653E-3</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="61"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="61"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="61"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="61"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AO23" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AP23" s="70">
+        <f t="shared" si="4"/>
+        <v>1.4545476567305404E-6</v>
+      </c>
+      <c r="AQ23" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR23" s="70">
+        <f t="shared" ref="AR23:AT23" si="83">AR10</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS23" s="70">
+        <f t="shared" ref="AS23" si="84">AS10</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT23" s="70">
+        <f t="shared" si="83"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU23" s="70">
+        <f t="shared" ref="AU23" si="85">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="84">
         <f t="shared" si="75"/>
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="76"/>
-        <v>1095840</v>
-      </c>
-      <c r="F23">
+        <v>68</v>
+      </c>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="111"/>
+      <c r="B24">
         <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="68"/>
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="69"/>
+        <v>547920</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="61"/>
+        <v>True</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="61"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="61"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="61"/>
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ref="W24" si="86">W11</f>
+        <v>3.8709515855680863E-7</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="61"/>
+        <v>False</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="61"/>
+        <v>1.0547664351198613E-3</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="61"/>
+        <v>3.3888553500781266E-4</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" ref="AG24" si="87">AG11</f>
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="61"/>
+        <v>3.3888553500781263E-3</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="61"/>
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="61"/>
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="61"/>
+        <v>8.9655146985188215E-10</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="61"/>
+        <v>8.9655146985188215E-10</v>
+      </c>
+      <c r="AO24" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AP24" s="70">
+        <f t="shared" si="4"/>
+        <v>5.5878867222163193E-7</v>
+      </c>
+      <c r="AQ24" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR24" s="70">
+        <f t="shared" ref="AR24:AT24" si="88">AR11</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS24" s="70">
+        <f t="shared" ref="AS24" si="89">AS11</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT24" s="70">
+        <f t="shared" si="88"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU24" s="70">
+        <f t="shared" ref="AU24" si="90">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV24" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW24" s="84">
+        <f t="shared" si="75"/>
+        <v>68</v>
+      </c>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="111"/>
+      <c r="B25">
         <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="68"/>
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="61"/>
         <v>True</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="67"/>
+      <c r="I25" t="str">
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="67"/>
+      <c r="J25">
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="67"/>
+      <c r="K25">
+        <f t="shared" si="61"/>
         <v>2.894E-2</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="67"/>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" ref="W23" si="90">W10</f>
-        <v>9.1658819653476345E-7</v>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Z23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AA23" t="str">
-        <f t="shared" si="67"/>
+      <c r="L25">
+        <f t="shared" si="61"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" ref="W25" si="91">W12</f>
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AC23" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AD23" t="str">
-        <f t="shared" si="67"/>
+      <c r="AB25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="61"/>
+        <v>NA</v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="61"/>
         <v>False</v>
       </c>
-      <c r="AE23">
-        <f t="shared" si="67"/>
-        <v>2.7455961848723877E-3</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="67"/>
-        <v>8.8213162748220658E-4</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" ref="AG23" si="91">AG10</f>
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="67"/>
-        <v>8.8213162748220653E-3</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="67"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="67"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AL23">
-        <f t="shared" si="67"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AM23">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" si="67"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AO23">
-        <f t="shared" ref="AO23:AP23" si="92">AO16</f>
-        <v>1600</v>
-      </c>
-      <c r="AP23" t="str">
+      <c r="AE25">
+        <f t="shared" si="61"/>
+        <v>7.4021453290852969E-4</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="61"/>
+        <v>2.3782326556187717E-4</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" ref="AG25" si="92">AG12</f>
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="61"/>
+        <v>2.3782326556187716E-3</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="61"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="61"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="61"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="61"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AO25" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ23" s="70">
-        <f t="shared" si="14"/>
-        <v>1.4545476567305404E-6</v>
-      </c>
-      <c r="AR23" s="102">
-        <f t="shared" si="15"/>
+      <c r="AP25" s="70">
+        <f t="shared" si="4"/>
+        <v>3.9214700262632978E-7</v>
+      </c>
+      <c r="AQ25" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
-      <c r="AS23" s="70">
-        <f t="shared" ref="AS23:AU23" si="93">AS10</f>
+      <c r="AR25" s="70">
+        <f t="shared" ref="AR25:AT25" si="93">AR12</f>
         <v>9.5</v>
       </c>
-      <c r="AT23" s="70">
-        <f t="shared" ref="AT23" si="94">AT10</f>
+      <c r="AS25" s="70">
+        <f t="shared" ref="AS25" si="94">AS12</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AU23" s="70">
+      <c r="AT25" s="70">
         <f t="shared" si="93"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AV23" s="70">
-        <f t="shared" ref="AV23" si="95">AV10</f>
-        <v>0</v>
-      </c>
-      <c r="AW23" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX23" s="84">
-        <f t="shared" si="83"/>
+      <c r="AU25" s="70">
+        <f t="shared" ref="AU25" si="95">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="84">
+        <f t="shared" si="75"/>
         <v>68</v>
       </c>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="75"/>
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="76"/>
-        <v>547920</v>
-      </c>
-      <c r="F24">
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
+      <c r="B26">
         <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="67"/>
-        <v>True</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="67"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="67"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="67"/>
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" ref="W24" si="96">W11</f>
-        <v>3.8709515855680863E-7</v>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Z24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AC24" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AD24" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="67"/>
-        <v>1.0547664351198613E-3</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="67"/>
-        <v>3.3888553500781266E-4</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" ref="AG24" si="97">AG11</f>
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="67"/>
-        <v>3.3888553500781263E-3</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="67"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AJ24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="67"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AL24">
-        <f t="shared" si="67"/>
-        <v>8.9655146985188215E-10</v>
-      </c>
-      <c r="AM24">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="67"/>
-        <v>8.9655146985188215E-10</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" ref="AO24:AP24" si="98">AO17</f>
-        <v>1600</v>
-      </c>
-      <c r="AP24" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ24" s="70">
-        <f t="shared" si="14"/>
-        <v>5.5878867222163193E-7</v>
-      </c>
-      <c r="AR24" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS24" s="70">
-        <f t="shared" ref="AS24:AU24" si="99">AS11</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT24" s="70">
-        <f t="shared" ref="AT24" si="100">AT11</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU24" s="70">
-        <f t="shared" si="99"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV24" s="70">
-        <f t="shared" ref="AV24" si="101">AV11</f>
-        <v>0</v>
-      </c>
-      <c r="AW24" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX24" s="84">
-        <f t="shared" si="83"/>
-        <v>68</v>
-      </c>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="9"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="75"/>
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="67"/>
-        <v>True</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="67"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="67"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="67"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" ref="W25" si="102">W12</f>
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="Z25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AA25" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AB25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AC25" t="str">
-        <f t="shared" si="67"/>
-        <v>NA</v>
-      </c>
-      <c r="AD25" t="str">
-        <f t="shared" si="67"/>
-        <v>False</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="67"/>
-        <v>7.4021453290852969E-4</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="67"/>
-        <v>2.3782326556187717E-4</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" ref="AG25" si="103">AG12</f>
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="67"/>
-        <v>2.3782326556187716E-3</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="67"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="67"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AL25">
-        <f t="shared" si="67"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AM25">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="67"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AO25">
-        <f t="shared" ref="AO25:AP25" si="104">AO18</f>
-        <v>1600</v>
-      </c>
-      <c r="AP25" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ25" s="70">
-        <f t="shared" si="14"/>
-        <v>3.9214700262632978E-7</v>
-      </c>
-      <c r="AR25" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS25" s="70">
-        <f t="shared" ref="AS25:AU25" si="105">AS12</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT25" s="70">
-        <f t="shared" ref="AT25" si="106">AT12</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU25" s="70">
-        <f t="shared" si="105"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV25" s="70">
-        <f t="shared" ref="AV25" si="107">AV12</f>
-        <v>0</v>
-      </c>
-      <c r="AW25" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX25" s="84">
-        <f t="shared" si="83"/>
-        <v>68</v>
-      </c>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26">
-        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -12157,1017 +12073,997 @@
         <v>2191680</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:AN30" si="108">F8</f>
+        <f t="shared" ref="F26:AN30" si="96">F8</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>True</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="J26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="M26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ref="W26" si="109">W8</f>
+        <f t="shared" ref="W26" si="97">W8</f>
         <v>6.4152407049273701E-6</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.7912645183191897E-2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>5.7551474375663898E-3</v>
       </c>
       <c r="AG26">
-        <f t="shared" ref="AG26" si="110">AG8</f>
+        <f t="shared" ref="AG26" si="98">AG8</f>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>5.7551474375663887E-2</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>3.0451496811426225E-6</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.5225748405713114E-8</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.5225748405713114E-8</v>
       </c>
-      <c r="AO26">
-        <f t="shared" ref="AO26:AP26" si="111">AO19</f>
-        <v>1600</v>
-      </c>
-      <c r="AP26" t="str">
+      <c r="AO26" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ26" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP26" s="70">
+        <f t="shared" si="4"/>
         <v>9.4896679346414427E-6</v>
       </c>
-      <c r="AR26" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ26" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR26" s="70">
+        <f t="shared" ref="AR26:AT26" si="99">AR8</f>
+        <v>9.5</v>
+      </c>
       <c r="AS26" s="70">
-        <f t="shared" ref="AS26:AU26" si="112">AS8</f>
+        <f t="shared" ref="AS26" si="100">AS8</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT26" s="70">
+        <f t="shared" si="99"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU26" s="70">
+        <f t="shared" ref="AU26" si="101">AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="84">
+        <f>AW8</f>
+        <v>68</v>
+      </c>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
+      <c r="B27">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D30" si="102">D9-5</f>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:T30" si="103">E9</f>
+        <v>1643760</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="103"/>
+        <v>True</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="103"/>
+        <v>False</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="103"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="103"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="103"/>
+        <v>3.1E-4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="103"/>
+        <v>NA</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" ref="W27" si="104">W9</f>
+        <v>2.3349332116543619E-6</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="96"/>
+        <v>False</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="96"/>
+        <v>False</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="96"/>
+        <v>6.1942724565379036E-3</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="96"/>
+        <v>1.9901556074634315E-3</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" ref="AG27" si="105">AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="96"/>
+        <v>1.9901556074634313E-2</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="96"/>
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="96"/>
+        <v>1.0530263176114436E-6</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="96"/>
+        <v>5.2651315880572185E-9</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="96"/>
+        <v>5.2651315880572185E-9</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="24"/>
+        <v>1800</v>
+      </c>
+      <c r="AP27" s="70">
+        <f t="shared" si="4"/>
+        <v>3.281569422499217E-6</v>
+      </c>
+      <c r="AQ27" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR27" s="70">
+        <f t="shared" ref="AR27:AT27" si="106">AR9</f>
         <v>9.5</v>
       </c>
-      <c r="AT26" s="70">
-        <f t="shared" ref="AT26" si="113">AT8</f>
+      <c r="AS27" s="70">
+        <f t="shared" ref="AS27" si="107">AS9</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AU26" s="70">
+      <c r="AT27" s="70">
+        <f t="shared" si="106"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU27" s="70">
+        <f t="shared" ref="AU27" si="108">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="84">
+        <f t="shared" ref="AW27:AW30" si="109">AW9</f>
+        <v>68</v>
+      </c>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" s="111"/>
+      <c r="B28">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="102"/>
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="103"/>
+        <v>1095840</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="96"/>
+        <v>True</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="96"/>
+        <v>False</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="96"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="96"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="96"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" ref="W28" si="110">W10</f>
+        <v>9.1658819653476345E-7</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="96"/>
+        <v>False</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="96"/>
+        <v>NA</v>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="96"/>
+        <v>False</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="96"/>
+        <v>2.7455961848723877E-3</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="96"/>
+        <v>8.8213162748220658E-4</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" ref="AG28" si="111">AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="96"/>
+        <v>8.8213162748220653E-3</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="96"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="96"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="96"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="96"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="24"/>
+        <v>1800</v>
+      </c>
+      <c r="AP28" s="70">
+        <f t="shared" si="4"/>
+        <v>1.4545476567305404E-6</v>
+      </c>
+      <c r="AQ28" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR28" s="70">
+        <f t="shared" ref="AR28:AT28" si="112">AR10</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS28" s="70">
+        <f t="shared" ref="AS28" si="113">AS10</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT28" s="70">
         <f t="shared" si="112"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AV26" s="70">
-        <f t="shared" ref="AV26" si="114">AV8</f>
-        <v>0</v>
-      </c>
-      <c r="AW26" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX26" s="84">
-        <f>AX8</f>
+      <c r="AU28" s="70">
+        <f t="shared" ref="AU28" si="114">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="84">
+        <f t="shared" si="109"/>
         <v>68</v>
       </c>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ref="D27:D30" si="115">D9-5</f>
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ref="E27:T30" si="116">E9</f>
-        <v>1643760</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="116"/>
-        <v>True</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="116"/>
-        <v>False</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="116"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="116"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="116"/>
-        <v>3.1E-4</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="116"/>
-        <v>NA</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="W27" s="1">
-        <f t="shared" ref="W27" si="117">W9</f>
-        <v>2.3349332116543619E-6</v>
-      </c>
-      <c r="X27" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="Y27" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="Z27" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AA27" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="AB27" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AC27" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AD27" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="108"/>
-        <v>6.1942724565379036E-3</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="108"/>
-        <v>1.9901556074634315E-3</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" ref="AG27" si="118">AG9</f>
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="108"/>
-        <v>1.9901556074634313E-2</v>
-      </c>
-      <c r="AI27">
-        <f t="shared" si="108"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AJ27">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <f t="shared" si="108"/>
-        <v>1.0530263176114436E-6</v>
-      </c>
-      <c r="AL27">
-        <f t="shared" si="108"/>
-        <v>5.2651315880572185E-9</v>
-      </c>
-      <c r="AM27">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <f t="shared" si="108"/>
-        <v>5.2651315880572185E-9</v>
-      </c>
-      <c r="AO27">
-        <f t="shared" ref="AO27:AP27" si="119">AO20</f>
-        <v>1600</v>
-      </c>
-      <c r="AP27">
-        <f t="shared" si="24"/>
-        <v>1600</v>
-      </c>
-      <c r="AQ27" s="70">
-        <f t="shared" si="14"/>
-        <v>3.281569422499217E-6</v>
-      </c>
-      <c r="AR27" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS27" s="70">
-        <f t="shared" ref="AS27:AU27" si="120">AS9</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT27" s="70">
-        <f t="shared" ref="AT27" si="121">AT9</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU27" s="70">
-        <f t="shared" si="120"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV27" s="70">
-        <f t="shared" ref="AV27" si="122">AV9</f>
-        <v>0</v>
-      </c>
-      <c r="AW27" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX27" s="84">
-        <f t="shared" ref="AX27:AX30" si="123">AX9</f>
-        <v>68</v>
-      </c>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="9"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="115"/>
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="116"/>
-        <v>1095840</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="108"/>
-        <v>True</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="108"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="108"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="108"/>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="W28" s="1">
-        <f t="shared" ref="W28" si="124">W10</f>
-        <v>9.1658819653476345E-7</v>
-      </c>
-      <c r="X28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="Y28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="Z28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AA28" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="AB28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AC28" t="str">
-        <f t="shared" si="108"/>
-        <v>NA</v>
-      </c>
-      <c r="AD28" t="str">
-        <f t="shared" si="108"/>
-        <v>False</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="108"/>
-        <v>2.7455961848723877E-3</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="108"/>
-        <v>8.8213162748220658E-4</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" ref="AG28" si="125">AG10</f>
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="108"/>
-        <v>8.8213162748220653E-3</v>
-      </c>
-      <c r="AI28">
-        <f t="shared" si="108"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AJ28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <f t="shared" si="108"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AL28">
-        <f t="shared" si="108"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AM28">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <f t="shared" si="108"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" ref="AO28:AP28" si="126">AO21</f>
-        <v>1600</v>
-      </c>
-      <c r="AP28" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ28" s="70">
-        <f t="shared" si="14"/>
-        <v>1.4545476567305404E-6</v>
-      </c>
-      <c r="AR28" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS28" s="70">
-        <f t="shared" ref="AS28:AU28" si="127">AS10</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT28" s="70">
-        <f t="shared" ref="AT28" si="128">AT10</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU28" s="70">
-        <f t="shared" si="127"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV28" s="70">
-        <f t="shared" ref="AV28" si="129">AV10</f>
-        <v>0</v>
-      </c>
-      <c r="AW28" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX28" s="84">
-        <f t="shared" si="123"/>
-        <v>68</v>
-      </c>
-      <c r="AY28" s="9"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="10"/>
       <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
+      <c r="BC28" s="9"/>
       <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
       <c r="B29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
       </c>
       <c r="D29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="102"/>
         <v>4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>547920</v>
       </c>
       <c r="F29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>True</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="J29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29" si="130">W11</f>
+        <f t="shared" ref="W29" si="115">W11</f>
         <v>3.8709515855680863E-7</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.0547664351198613E-3</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>3.3888553500781266E-4</v>
       </c>
       <c r="AG29">
-        <f t="shared" ref="AG29" si="131">AG11</f>
+        <f t="shared" ref="AG29" si="116">AG11</f>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>3.3888553500781263E-3</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.7931029397037642E-7</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>8.9655146985188215E-10</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>8.9655146985188215E-10</v>
       </c>
-      <c r="AO29">
-        <f t="shared" ref="AO29:AP29" si="132">AO22</f>
-        <v>1600</v>
-      </c>
-      <c r="AP29" t="str">
+      <c r="AO29" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ29" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP29" s="70">
+        <f t="shared" si="4"/>
         <v>5.5878867222163193E-7</v>
       </c>
-      <c r="AR29" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ29" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR29" s="70">
+        <f t="shared" ref="AR29:AT29" si="117">AR11</f>
+        <v>9.5</v>
+      </c>
       <c r="AS29" s="70">
-        <f t="shared" ref="AS29:AU29" si="133">AS11</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS29" si="118">AS11</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT29" s="70">
-        <f t="shared" ref="AT29" si="134">AT11</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="117"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU29" s="70">
-        <f t="shared" si="133"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV29" s="70">
-        <f t="shared" ref="AV29" si="135">AV11</f>
+        <f t="shared" ref="AU29" si="119">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW29" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX29" s="84">
-        <f t="shared" si="123"/>
+        <f t="shared" si="109"/>
         <v>68</v>
       </c>
-      <c r="AY29" s="9"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="9"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="10"/>
       <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
+      <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
-    </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
       <c r="B30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
       <c r="D30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="102"/>
         <v>5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>True</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="J30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.894E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ref="W30" si="136">W12</f>
+        <f t="shared" ref="W30" si="120">W12</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>NA</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>False</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>7.4021453290852969E-4</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.3782326556187717E-4</v>
       </c>
       <c r="AG30">
-        <f t="shared" ref="AG30" si="137">AG12</f>
+        <f t="shared" ref="AG30" si="121">AG12</f>
         <v>0</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>2.3782326556187716E-3</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>1.2583647059445005E-7</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>6.2918235297225031E-10</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>6.2918235297225031E-10</v>
       </c>
-      <c r="AO30">
-        <f t="shared" ref="AO30:AP30" si="138">AO23</f>
-        <v>1600</v>
-      </c>
-      <c r="AP30" t="str">
+      <c r="AO30" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ30" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP30" s="70">
+        <f t="shared" si="4"/>
         <v>3.9214700262632978E-7</v>
       </c>
-      <c r="AR30" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ30" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR30" s="70">
+        <f t="shared" ref="AR30:AT30" si="122">AR12</f>
+        <v>9.5</v>
+      </c>
       <c r="AS30" s="70">
-        <f t="shared" ref="AS30:AU30" si="139">AS12</f>
-        <v>9.5</v>
+        <f t="shared" ref="AS30" si="123">AS12</f>
+        <v>1889.9390966577716</v>
       </c>
       <c r="AT30" s="70">
-        <f t="shared" ref="AT30" si="140">AT12</f>
-        <v>1889.9390966577716</v>
+        <f t="shared" si="122"/>
+        <v>18899.390966577714</v>
       </c>
       <c r="AU30" s="70">
-        <f t="shared" si="139"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV30" s="70">
-        <f t="shared" ref="AV30" si="141">AV12</f>
+        <f t="shared" ref="AU30" si="124">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV30" s="84">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW30" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX30" s="84">
-        <f t="shared" si="123"/>
+        <f t="shared" si="109"/>
         <v>68</v>
       </c>
-      <c r="AY30" s="9"/>
-      <c r="AZ30" s="10"/>
-      <c r="BA30" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
-      <c r="BC30" s="10"/>
+      <c r="BC30" s="9"/>
       <c r="BD30" s="9"/>
-      <c r="BE30" s="9"/>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
       <c r="B31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -13182,809 +13078,793 @@
         <v>1643760</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:AN34" si="142">F9</f>
+        <f t="shared" ref="F31:AN34" si="125">F9</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>True</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="J31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>2.894E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>3.1E-4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31" si="143">W9</f>
+        <f t="shared" ref="W31" si="126">W9</f>
         <v>2.3349332116543619E-6</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>NA</v>
       </c>
       <c r="AD31" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>False</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>6.1942724565379036E-3</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.9901556074634315E-3</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31" si="144">AG9</f>
+        <f t="shared" ref="AG31" si="127">AG9</f>
         <v>0</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.9901556074634313E-2</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.0530263176114436E-6</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>5.2651315880572185E-9</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>5.2651315880572185E-9</v>
       </c>
-      <c r="AO31">
-        <f t="shared" ref="AO31:AP31" si="145">AO24</f>
-        <v>1600</v>
-      </c>
-      <c r="AP31" t="str">
+      <c r="AO31" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="AQ31" s="70">
-        <f t="shared" si="14"/>
+      <c r="AP31" s="70">
+        <f t="shared" si="4"/>
         <v>3.281569422499217E-6</v>
       </c>
-      <c r="AR31" s="102">
-        <f t="shared" si="15"/>
+      <c r="AQ31" s="102">
+        <f t="shared" si="5"/>
         <v>67.910893172283792</v>
       </c>
+      <c r="AR31" s="70">
+        <f t="shared" ref="AR31:AT31" si="128">AR9</f>
+        <v>9.5</v>
+      </c>
       <c r="AS31" s="70">
-        <f t="shared" ref="AS31:AU31" si="146">AS9</f>
+        <f t="shared" ref="AS31" si="129">AS9</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT31" s="70">
+        <f t="shared" si="128"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU31" s="70">
+        <f t="shared" ref="AU31" si="130">AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV31" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="84">
+        <f>AW16</f>
+        <v>68</v>
+      </c>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A32" s="111"/>
+      <c r="B32">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D34" si="131">D10-6</f>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:T34" si="132">E10</f>
+        <v>1095840</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="132"/>
+        <v>True</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="132"/>
+        <v>False</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="132"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="132"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="132"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="132"/>
+        <v>NA</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" ref="W32" si="133">W10</f>
+        <v>9.1658819653476345E-7</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AD32" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="125"/>
+        <v>2.7455961848723877E-3</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="125"/>
+        <v>8.8213162748220658E-4</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" ref="AG32" si="134">AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="125"/>
+        <v>8.8213162748220653E-3</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="125"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="125"/>
+        <v>4.6675135142830591E-7</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="125"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="125"/>
+        <v>2.3337567571415298E-9</v>
+      </c>
+      <c r="AO32" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AP32" s="70">
+        <f t="shared" si="4"/>
+        <v>1.4545476567305404E-6</v>
+      </c>
+      <c r="AQ32" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR32" s="70">
+        <f t="shared" ref="AR32:AT32" si="135">AR10</f>
         <v>9.5</v>
       </c>
-      <c r="AT31" s="70">
-        <f t="shared" ref="AT31" si="147">AT9</f>
+      <c r="AS32" s="70">
+        <f t="shared" ref="AS32" si="136">AS10</f>
         <v>1889.9390966577716</v>
       </c>
-      <c r="AU31" s="70">
+      <c r="AT32" s="70">
+        <f t="shared" si="135"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU32" s="70">
+        <f t="shared" ref="AU32" si="137">AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV32" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="84">
+        <f t="shared" ref="AW32:AW34" si="138">AW17</f>
+        <v>68</v>
+      </c>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="9"/>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A33" s="111"/>
+      <c r="B33">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="131"/>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="132"/>
+        <v>547920</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="125"/>
+        <v>True</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="125"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="125"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="125"/>
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" ref="W33" si="139">W11</f>
+        <v>3.8709515855680863E-7</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="125"/>
+        <v>1.0547664351198613E-3</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="125"/>
+        <v>3.3888553500781266E-4</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" ref="AG33" si="140">AG11</f>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="125"/>
+        <v>3.3888553500781263E-3</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="125"/>
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="125"/>
+        <v>1.7931029397037642E-7</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="125"/>
+        <v>8.9655146985188215E-10</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="125"/>
+        <v>8.9655146985188215E-10</v>
+      </c>
+      <c r="AO33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="AP33" s="70">
+        <f t="shared" si="4"/>
+        <v>5.5878867222163193E-7</v>
+      </c>
+      <c r="AQ33" s="102">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR33" s="70">
+        <f t="shared" ref="AR33:AT33" si="141">AR11</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS33" s="70">
+        <f t="shared" ref="AS33" si="142">AS11</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT33" s="70">
+        <f t="shared" si="141"/>
+        <v>18899.390966577714</v>
+      </c>
+      <c r="AU33" s="70">
+        <f t="shared" ref="AU33" si="143">AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV33" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="84">
+        <f t="shared" si="138"/>
+        <v>68</v>
+      </c>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A34" s="111"/>
+      <c r="B34">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="131"/>
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="125"/>
+        <v>True</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="125"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="125"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="125"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" ref="W34" si="144">W12</f>
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="125"/>
+        <v>NA</v>
+      </c>
+      <c r="AD34" t="str">
+        <f t="shared" si="125"/>
+        <v>False</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="125"/>
+        <v>7.4021453290852969E-4</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="125"/>
+        <v>2.3782326556187717E-4</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" ref="AG34" si="145">AG12</f>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="125"/>
+        <v>2.3782326556187716E-3</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="125"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="125"/>
+        <v>1.2583647059445005E-7</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="125"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="125"/>
+        <v>6.2918235297225031E-10</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="24"/>
+        <v>1800</v>
+      </c>
+      <c r="AP34" s="73">
+        <f t="shared" si="4"/>
+        <v>3.9214700262632978E-7</v>
+      </c>
+      <c r="AQ34" s="103">
+        <f t="shared" si="5"/>
+        <v>67.910893172283792</v>
+      </c>
+      <c r="AR34" s="73">
+        <f t="shared" ref="AR34:AT34" si="146">AR12</f>
+        <v>9.5</v>
+      </c>
+      <c r="AS34" s="73">
+        <f t="shared" ref="AS34" si="147">AS12</f>
+        <v>1889.9390966577716</v>
+      </c>
+      <c r="AT34" s="73">
         <f t="shared" si="146"/>
         <v>18899.390966577714</v>
       </c>
-      <c r="AV31" s="70">
-        <f t="shared" ref="AV31" si="148">AV9</f>
-        <v>0</v>
-      </c>
-      <c r="AW31" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX31" s="84">
-        <f>AX16</f>
+      <c r="AU34" s="73">
+        <f t="shared" ref="AU34" si="148">AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV34" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="84">
+        <f t="shared" si="138"/>
         <v>68</v>
       </c>
-      <c r="AY31" s="9"/>
-      <c r="AZ31" s="10"/>
-      <c r="BA31" s="9"/>
-      <c r="BB31" s="10"/>
-      <c r="BC31" s="10"/>
-      <c r="BD31" s="9"/>
-      <c r="BE31" s="9"/>
-    </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32:D34" si="149">D10-6</f>
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ref="E32:T34" si="150">E10</f>
-        <v>1095840</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="150"/>
-        <v>True</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="150"/>
-        <v>False</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="150"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="150"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="150"/>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="150"/>
-        <v>NA</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" ref="W32" si="151">W10</f>
-        <v>9.1658819653476345E-7</v>
-      </c>
-      <c r="X32" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="Y32" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="Z32" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AA32" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="AB32" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AC32" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AD32" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="142"/>
-        <v>2.7455961848723877E-3</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="142"/>
-        <v>8.8213162748220658E-4</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" ref="AG32" si="152">AG10</f>
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="142"/>
-        <v>8.8213162748220653E-3</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="142"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AJ32">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <f t="shared" si="142"/>
-        <v>4.6675135142830591E-7</v>
-      </c>
-      <c r="AL32">
-        <f t="shared" si="142"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AM32">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <f t="shared" si="142"/>
-        <v>2.3337567571415298E-9</v>
-      </c>
-      <c r="AO32">
-        <f t="shared" ref="AO32:AP32" si="153">AO25</f>
-        <v>1600</v>
-      </c>
-      <c r="AP32" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ32" s="70">
-        <f t="shared" si="14"/>
-        <v>1.4545476567305404E-6</v>
-      </c>
-      <c r="AR32" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS32" s="70">
-        <f t="shared" ref="AS32:AU32" si="154">AS10</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT32" s="70">
-        <f t="shared" ref="AT32" si="155">AT10</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU32" s="70">
-        <f t="shared" si="154"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV32" s="70">
-        <f t="shared" ref="AV32" si="156">AV10</f>
-        <v>0</v>
-      </c>
-      <c r="AW32" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX32" s="84">
-        <f t="shared" ref="AX32:AX34" si="157">AX17</f>
-        <v>68</v>
-      </c>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="10"/>
-      <c r="BA32" s="9"/>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="9"/>
-      <c r="BE32" s="9"/>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="149"/>
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="150"/>
-        <v>547920</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="142"/>
-        <v>True</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="142"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="142"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="142"/>
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="W33" s="1">
-        <f t="shared" ref="W33" si="158">W11</f>
-        <v>3.8709515855680863E-7</v>
-      </c>
-      <c r="X33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="Y33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="Z33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AA33" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="AB33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AC33" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AD33" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="142"/>
-        <v>1.0547664351198613E-3</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="142"/>
-        <v>3.3888553500781266E-4</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" ref="AG33" si="159">AG11</f>
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="142"/>
-        <v>3.3888553500781263E-3</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="142"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AJ33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <f t="shared" si="142"/>
-        <v>1.7931029397037642E-7</v>
-      </c>
-      <c r="AL33">
-        <f t="shared" si="142"/>
-        <v>8.9655146985188215E-10</v>
-      </c>
-      <c r="AM33">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <f t="shared" si="142"/>
-        <v>8.9655146985188215E-10</v>
-      </c>
-      <c r="AO33">
-        <f t="shared" ref="AO33:AP33" si="160">AO26</f>
-        <v>1600</v>
-      </c>
-      <c r="AP33" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ33" s="70">
-        <f t="shared" si="14"/>
-        <v>5.5878867222163193E-7</v>
-      </c>
-      <c r="AR33" s="102">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS33" s="70">
-        <f t="shared" ref="AS33:AU33" si="161">AS11</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT33" s="70">
-        <f t="shared" ref="AT33" si="162">AT11</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU33" s="70">
-        <f t="shared" si="161"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV33" s="70">
-        <f t="shared" ref="AV33" si="163">AV11</f>
-        <v>0</v>
-      </c>
-      <c r="AW33" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX33" s="84">
-        <f t="shared" si="157"/>
-        <v>68</v>
-      </c>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="149"/>
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="142"/>
-        <v>True</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="142"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="142"/>
-        <v>2.894E-2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="142"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="W34" s="1">
-        <f t="shared" ref="W34" si="164">W12</f>
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="X34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="Y34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="Z34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AA34" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="AB34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AC34" t="str">
-        <f t="shared" si="142"/>
-        <v>NA</v>
-      </c>
-      <c r="AD34" t="str">
-        <f t="shared" si="142"/>
-        <v>False</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="142"/>
-        <v>7.4021453290852969E-4</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="142"/>
-        <v>2.3782326556187717E-4</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" ref="AG34" si="165">AG12</f>
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="142"/>
-        <v>2.3782326556187716E-3</v>
-      </c>
-      <c r="AI34">
-        <f t="shared" si="142"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AJ34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <f t="shared" si="142"/>
-        <v>1.2583647059445005E-7</v>
-      </c>
-      <c r="AL34">
-        <f t="shared" si="142"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AM34">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="AN34">
-        <f t="shared" si="142"/>
-        <v>6.2918235297225031E-10</v>
-      </c>
-      <c r="AO34">
-        <f t="shared" ref="AO34:AP34" si="166">AO27</f>
-        <v>1600</v>
-      </c>
-      <c r="AP34">
-        <f t="shared" si="24"/>
-        <v>1600</v>
-      </c>
-      <c r="AQ34" s="73">
-        <f t="shared" si="14"/>
-        <v>3.9214700262632978E-7</v>
-      </c>
-      <c r="AR34" s="103">
-        <f t="shared" si="15"/>
-        <v>67.910893172283792</v>
-      </c>
-      <c r="AS34" s="73">
-        <f t="shared" ref="AS34:AU34" si="167">AS12</f>
-        <v>9.5</v>
-      </c>
-      <c r="AT34" s="73">
-        <f t="shared" ref="AT34" si="168">AT12</f>
-        <v>1889.9390966577716</v>
-      </c>
-      <c r="AU34" s="73">
-        <f t="shared" si="167"/>
-        <v>18899.390966577714</v>
-      </c>
-      <c r="AV34" s="73">
-        <f t="shared" ref="AV34" si="169">AV12</f>
-        <v>0</v>
-      </c>
-      <c r="AW34" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX34" s="84">
-        <f t="shared" si="157"/>
-        <v>68</v>
-      </c>
-      <c r="AY34" s="9"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="10"/>
       <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
+      <c r="BC34" s="9"/>
       <c r="BD34" s="9"/>
-      <c r="BE34" s="9"/>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -13996,8 +13876,8 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110" t="s">
+    <row r="36" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -14084,22 +13964,22 @@
       </c>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
-      <c r="AQ36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="80" t="s">
+        <v>21</v>
+      </c>
       <c r="AR36" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS36" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AT36" s="81" t="s">
+      <c r="AS36" s="81" t="s">
         <v>116</v>
       </c>
+      <c r="AT36" s="51"/>
       <c r="AU36" s="51"/>
       <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A37" s="111"/>
       <c r="B37">
         <v>1</v>
       </c>
@@ -14116,8 +13996,8 @@
         <v>39</v>
       </c>
       <c r="G37" s="48">
-        <f>280</f>
-        <v>280</v>
+        <f>INPUTS!G15</f>
+        <v>240</v>
       </c>
       <c r="H37" s="48">
         <v>8.2000000000000003E-2</v>
@@ -14127,34 +14007,34 @@
       </c>
       <c r="J37">
         <f>P37*$U$37</f>
-        <v>4.3023282082452321E-3</v>
+        <v>4.1067678351431759E-3</v>
       </c>
       <c r="K37">
         <f>J37*0.005</f>
-        <v>2.1511641041226162E-5</v>
+        <v>2.053383917571588E-5</v>
       </c>
       <c r="L37">
         <f>J37*$W37</f>
-        <v>1.7741886232211572</v>
+        <v>1.6935436858020134</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M42" si="170">J37*$X37</f>
-        <v>17.74188623221157</v>
+        <f t="shared" ref="M37:M42" si="149">J37*$X37</f>
+        <v>16.935436858020136</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N42" si="171">AA37*$J37</f>
+        <f t="shared" ref="N37:N42" si="150">AA37*$J37</f>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ref="O37:O42" si="172">J37*$AB$38</f>
-        <v>25.307812989677835</v>
+        <f t="shared" ref="O37:O42" si="151">J37*$AB$38</f>
+        <v>24.157457853783384</v>
       </c>
       <c r="P37">
         <v>1.9556037310205601E-4</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37:Q42" si="173">J37*$AC37</f>
-        <v>0.36569789770084471</v>
+        <f t="shared" ref="Q37:Q42" si="152">J37*$AC37</f>
+        <v>0.34907526598716992</v>
       </c>
       <c r="R37">
         <v>4400</v>
@@ -14167,14 +14047,14 @@
       </c>
       <c r="U37" s="15">
         <f>INPUTS!U15</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V37" s="15">
         <f>INPUTS!V15</f>
         <v>4.3</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:W42" si="174">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
+        <f t="shared" ref="W37:W42" si="153">(($V37/100)*(1+$AB$38*$E$53)-$Y$38)/(((1+1/$X$45)*(14*10^(-6)))-(($J$53/$X$45+$F$53)*$V37/100))</f>
         <v>412.37872550518085</v>
       </c>
       <c r="X37" s="15">
@@ -14188,44 +14068,44 @@
         <v>27</v>
       </c>
       <c r="AA37" s="89">
-        <f t="shared" ref="AA37:AA42" si="175">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
+        <f t="shared" ref="AA37:AA42" si="154">IF(F37="HiddenElement",$AA$44/100/(1-$X$55)*$X$54*10^6/$X$52,0)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="88" t="s">
         <v>21</v>
       </c>
       <c r="AC37" s="15">
-        <f>ROUND(X37/$AU$6*$AC$45,0)</f>
+        <f t="shared" ref="AC37:AC42" si="155">ROUND(X37/$AT$6*$AC$45,0)</f>
         <v>85</v>
       </c>
       <c r="AD37" s="15">
         <f>J37+L37*$F$53+M37*$J$53+O37*$E$53</f>
-        <v>6.8543416050531256E-3</v>
+        <v>6.5427806230052557E-3</v>
       </c>
       <c r="AE37" s="71">
         <f>(1-J37/AD37)*100</f>
         <v>37.232071931263391</v>
       </c>
       <c r="AF37" s="1"/>
-      <c r="AQ37" s="82"/>
+      <c r="AP37" s="82"/>
+      <c r="AQ37" s="84">
+        <f>$AQ$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
+        <v>5882.3529411764703</v>
+      </c>
       <c r="AR37" s="84">
         <f>$AR$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
         <v>5882.3529411764703</v>
       </c>
-      <c r="AS37" s="84">
-        <f>$AS$38/100/(1-$X$55)*$X$54*10^6/$X$52</f>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="AT37" s="85">
-        <f>AS37+AR37</f>
+      <c r="AS37" s="85">
+        <f>AR37+AQ37</f>
         <v>11764.705882352941</v>
       </c>
+      <c r="AT37" s="97"/>
       <c r="AU37" s="97"/>
       <c r="AV37" s="97"/>
-      <c r="AW37" s="97"/>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A38" s="111"/>
       <c r="B38">
         <v>1</v>
       </c>
@@ -14242,8 +14122,8 @@
         <v>41</v>
       </c>
       <c r="G38" s="48">
-        <f>280</f>
-        <v>280</v>
+        <f>INPUTS!G16</f>
+        <v>240</v>
       </c>
       <c r="H38" s="48">
         <v>2.8500000000000001E-2</v>
@@ -14256,7 +14136,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="176">J38*0.005</f>
+        <f t="shared" ref="K38:K42" si="156">J38*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L38">
@@ -14264,22 +14144,22 @@
         <v>0.20231970075485131</v>
       </c>
       <c r="M38">
-        <f t="shared" si="170"/>
+        <f t="shared" si="149"/>
         <v>2.0231970075485135</v>
       </c>
       <c r="N38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="151"/>
         <v>10.058823529411764</v>
       </c>
       <c r="P38">
         <v>2.6899999999999998E-4</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="152"/>
         <v>4.104E-2</v>
       </c>
       <c r="R38">
@@ -14301,7 +14181,7 @@
         <v>1.8</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="153"/>
         <v>118.31561447652125</v>
       </c>
       <c r="X38" s="15">
@@ -14315,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="89">
-        <f t="shared" si="175"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AB38" s="56">
@@ -14323,37 +14203,37 @@
         <v>5882.3529411764703</v>
       </c>
       <c r="AC38" s="15">
-        <f t="shared" ref="AC38:AC42" si="177">ROUND(X38/$AU$6*$AC$45,0)</f>
+        <f t="shared" si="155"/>
         <v>24</v>
       </c>
       <c r="AD38" s="15">
-        <f t="shared" ref="AD38:AD42" si="178">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
+        <f t="shared" ref="AD38:AD42" si="157">J38+L38*$F$53+M38*$J$53+O38*$E$53</f>
         <v>2.2059574397915059E-3</v>
       </c>
       <c r="AE38" s="71">
-        <f t="shared" ref="AE38:AE42" si="179">(1-J38/AD38)*100</f>
+        <f t="shared" ref="AE38:AE42" si="158">(1-J38/AD38)*100</f>
         <v>22.482638642311294</v>
       </c>
       <c r="AF38" s="1"/>
-      <c r="AQ38" s="83" t="s">
+      <c r="AP38" s="83" t="s">
         <v>140</v>
+      </c>
+      <c r="AQ38" s="86">
+        <v>10</v>
       </c>
       <c r="AR38" s="86">
         <v>10</v>
       </c>
-      <c r="AS38" s="86">
-        <v>10</v>
-      </c>
-      <c r="AT38" s="87">
-        <f>AS38+AR38</f>
+      <c r="AS38" s="87">
+        <f>AR38+AQ38</f>
         <v>20</v>
       </c>
+      <c r="AT38" s="98"/>
       <c r="AU38" s="98"/>
       <c r="AV38" s="98"/>
-      <c r="AW38" s="98"/>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A39" s="110"/>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A39" s="111"/>
       <c r="B39">
         <v>1</v>
       </c>
@@ -14370,7 +14250,8 @@
         <v>39</v>
       </c>
       <c r="G39" s="48">
-        <v>180</v>
+        <f>INPUTS!G17</f>
+        <v>160</v>
       </c>
       <c r="H39" s="48">
         <v>9.1999999999999998E-2</v>
@@ -14380,34 +14261,34 @@
       </c>
       <c r="J39">
         <f>P39*$U$39</f>
-        <v>5.0680069287428898E-3</v>
+        <v>4.8376429774363953E-3</v>
       </c>
       <c r="K39">
-        <f t="shared" si="176"/>
-        <v>2.5340034643714449E-5</v>
+        <f t="shared" si="156"/>
+        <v>2.4188214887181978E-5</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L42" si="180">J39*$W39</f>
-        <v>2.4761936124967816</v>
+        <f t="shared" ref="L39:L42" si="159">J39*$W39</f>
+        <v>2.3636393573832919</v>
       </c>
       <c r="M39">
-        <f t="shared" si="170"/>
-        <v>24.761936124967814</v>
+        <f t="shared" si="149"/>
+        <v>23.636393573832915</v>
       </c>
       <c r="N39">
-        <f t="shared" si="171"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="172"/>
-        <v>29.811805463193469</v>
+        <f t="shared" si="151"/>
+        <v>28.456723396684676</v>
       </c>
       <c r="P39">
         <v>2.3036395130649501E-4</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="173"/>
-        <v>0.51186869980303185</v>
+        <f t="shared" si="152"/>
+        <v>0.48860194072107593</v>
       </c>
       <c r="R39">
         <v>4400</v>
@@ -14420,45 +14301,45 @@
       </c>
       <c r="U39" s="15">
         <f>INPUTS!U17</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V39" s="15">
         <f>INPUTS!V17</f>
         <v>4.8</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="153"/>
         <v>488.59317820841994</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X42" si="181">$W39/$X$45</f>
+        <f t="shared" ref="X39:X42" si="160">$W39/$X$45</f>
         <v>4885.9317820841989</v>
       </c>
       <c r="Z39" s="28"/>
       <c r="AA39" s="89">
-        <f t="shared" si="175"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AB39" s="53">
         <v>10</v>
       </c>
       <c r="AC39" s="15">
-        <f t="shared" si="177"/>
+        <f t="shared" si="155"/>
         <v>101</v>
       </c>
       <c r="AD39" s="15">
-        <f t="shared" si="178"/>
-        <v>8.4723718951712264E-3</v>
+        <f t="shared" si="157"/>
+        <v>8.0872640817543518E-3</v>
       </c>
       <c r="AE39" s="71">
-        <f t="shared" si="179"/>
-        <v>40.181958589053821</v>
+        <f t="shared" si="158"/>
+        <v>40.181958589053814</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A40" s="111"/>
       <c r="B40">
         <v>1</v>
       </c>
@@ -14475,7 +14356,8 @@
         <v>42</v>
       </c>
       <c r="G40" s="48">
-        <v>180</v>
+        <f>INPUTS!G18</f>
+        <v>160</v>
       </c>
       <c r="H40" s="48">
         <v>2.8500000000000001E-2</v>
@@ -14488,30 +14370,30 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="176"/>
+        <f t="shared" si="156"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="180"/>
+        <f t="shared" si="159"/>
         <v>0.38263355734467192</v>
       </c>
       <c r="M40">
-        <f t="shared" si="170"/>
+        <f t="shared" si="149"/>
         <v>3.8263355734467188</v>
       </c>
       <c r="N40">
-        <f t="shared" si="171"/>
+        <f t="shared" si="150"/>
         <v>6.7058823529411775</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="151"/>
         <v>13.411764705882355</v>
       </c>
       <c r="P40">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="152"/>
         <v>7.980000000000001E-2</v>
       </c>
       <c r="R40">
@@ -14533,11 +14415,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="153"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="160"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA40" s="89">
@@ -14548,22 +14430,22 @@
         <v>121</v>
       </c>
       <c r="AC40" s="15">
-        <f t="shared" si="177"/>
+        <f t="shared" si="155"/>
         <v>35</v>
       </c>
       <c r="AD40" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="157"/>
         <v>3.0576333839599777E-3</v>
       </c>
       <c r="AE40" s="71">
-        <f t="shared" si="179"/>
+        <f t="shared" si="158"/>
         <v>25.432525300101705</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A41" s="111"/>
       <c r="B41">
         <v>1</v>
       </c>
@@ -14580,7 +14462,8 @@
         <v>41</v>
       </c>
       <c r="G41" s="48">
-        <v>180</v>
+        <f>INPUTS!G19</f>
+        <v>160</v>
       </c>
       <c r="H41" s="48">
         <v>5.0000000000000001E-4</v>
@@ -14593,30 +14476,30 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="156"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L41">
-        <f t="shared" si="180"/>
+        <f t="shared" si="159"/>
         <v>6.7128694270995066E-3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="170"/>
+        <f t="shared" si="149"/>
         <v>6.7128694270995062E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="171"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="151"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="P41">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="152"/>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="R41">
@@ -14638,42 +14521,42 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" si="174"/>
+        <f t="shared" si="153"/>
         <v>167.82173567748765</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="160"/>
         <v>1678.2173567748764</v>
       </c>
       <c r="AA41" s="89">
-        <f t="shared" si="175"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AB41" s="1"/>
       <c r="AC41" s="15">
-        <f t="shared" si="177"/>
+        <f t="shared" si="155"/>
         <v>35</v>
       </c>
       <c r="AD41" s="15">
-        <f t="shared" si="178"/>
+        <f t="shared" si="157"/>
         <v>5.3642690946666268E-5</v>
       </c>
       <c r="AE41" s="71">
-        <f t="shared" si="179"/>
+        <f t="shared" si="158"/>
         <v>25.432525300101705</v>
       </c>
-      <c r="AX41" s="91" t="s">
+      <c r="AW41" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="AY41" s="9" t="s">
+      <c r="AX41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AZ41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
+      <c r="AY41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A42" s="111"/>
       <c r="B42">
         <v>1</v>
       </c>
@@ -14690,6 +14573,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="48">
+        <f>INPUTS!G20</f>
         <v>80</v>
       </c>
       <c r="H42" s="48">
@@ -14700,34 +14584,34 @@
       </c>
       <c r="J42">
         <f>P42*$U$42</f>
-        <v>4.3694199999999997E-3</v>
+        <v>4.1708099999999996E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" si="176"/>
-        <v>2.18471E-5</v>
+        <f t="shared" si="156"/>
+        <v>2.0854049999999997E-5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="180"/>
-        <v>2.3509226953550577</v>
+        <f t="shared" si="159"/>
+        <v>2.2440625728389185</v>
       </c>
       <c r="M42">
-        <f t="shared" si="170"/>
-        <v>23.509226953550574</v>
+        <f t="shared" si="149"/>
+        <v>22.440625728389183</v>
       </c>
       <c r="N42">
-        <f t="shared" si="171"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="172"/>
-        <v>25.70247058823529</v>
+        <f t="shared" si="151"/>
+        <v>24.534176470588232</v>
       </c>
       <c r="P42">
         <v>1.9861E-4</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="173"/>
-        <v>0.48500561999999997</v>
+        <f t="shared" si="152"/>
+        <v>0.46295990999999997</v>
       </c>
       <c r="R42">
         <f>INPUTS!R20</f>
@@ -14741,67 +14625,66 @@
       </c>
       <c r="U42" s="16">
         <f>INPUTS!U20</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V42" s="16">
         <f>INPUTS!V20</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="W42" s="16">
-        <f t="shared" si="174"/>
+        <f t="shared" si="153"/>
         <v>538.03999051477263</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="181"/>
+        <f t="shared" si="160"/>
         <v>5380.3999051477258</v>
       </c>
       <c r="AA42" s="90">
-        <f t="shared" si="175"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="177"/>
+        <f t="shared" si="155"/>
         <v>111</v>
       </c>
       <c r="AD42" s="16">
-        <f t="shared" si="178"/>
-        <v>7.5272391193074283E-3</v>
+        <f t="shared" si="157"/>
+        <v>7.1850918866116359E-3</v>
       </c>
       <c r="AE42" s="72">
-        <f t="shared" si="179"/>
+        <f t="shared" si="158"/>
         <v>41.951890583728066</v>
       </c>
-      <c r="AX42" s="91"/>
-      <c r="AY42" s="9" t="s">
+      <c r="AW42" s="91"/>
+      <c r="AX42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AZ42" s="9">
+      <c r="AY42" s="9">
         <v>0.106</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Z43" s="1"/>
       <c r="AN43" s="91"/>
       <c r="AO43" s="109"/>
-      <c r="AP43" s="109"/>
+      <c r="AP43" s="91"/>
       <c r="AQ43" s="91"/>
       <c r="AR43" s="91"/>
       <c r="AS43" s="91"/>
-      <c r="AT43" s="91"/>
+      <c r="AT43" s="96"/>
       <c r="AU43" s="96"/>
-      <c r="AV43" s="96"/>
-      <c r="AW43" s="105"/>
-      <c r="AX43" s="9" t="s">
+      <c r="AV43" s="105"/>
+      <c r="AW43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AY43" s="9">
+      <c r="AX43" s="9">
         <v>1.28</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="V44" s="34"/>
       <c r="W44" s="93"/>
@@ -14819,30 +14702,29 @@
       </c>
       <c r="AN44" s="91"/>
       <c r="AO44" s="109"/>
-      <c r="AP44" s="109"/>
+      <c r="AP44" s="91"/>
       <c r="AQ44" s="91"/>
       <c r="AR44" s="91"/>
       <c r="AS44" s="91"/>
-      <c r="AT44" s="91"/>
+      <c r="AT44" s="96"/>
       <c r="AU44" s="96"/>
-      <c r="AV44" s="96"/>
-      <c r="AW44" s="105"/>
-      <c r="AX44" s="9" t="s">
+      <c r="AV44" s="105"/>
+      <c r="AW44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AY44" s="9">
+      <c r="AX44" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="X45" s="16">
         <f>INPUTS!X23</f>
         <v>0.1</v>
       </c>
       <c r="Y45" s="74">
-        <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AS5:AS12,AQ5:AQ12))/SUM(AD37:AD42,AQ5:AQ12)</f>
-        <v>4.3740904222538166</v>
+        <f>(SUMPRODUCT(V37:V42,AD37:AD42)+SUMPRODUCT(AR5:AR12,AP5:AP12))/SUM(AD37:AD42,AP5:AP12)</f>
+        <v>4.3619109572720793</v>
       </c>
       <c r="AA45" s="54" t="s">
         <v>121</v>
@@ -14852,23 +14734,22 @@
       </c>
       <c r="AN45" s="91"/>
       <c r="AO45" s="109"/>
-      <c r="AP45" s="109"/>
+      <c r="AP45" s="91"/>
       <c r="AQ45" s="91"/>
       <c r="AR45" s="91"/>
       <c r="AS45" s="91"/>
-      <c r="AT45" s="91"/>
+      <c r="AT45" s="96"/>
       <c r="AU45" s="96"/>
-      <c r="AV45" s="96"/>
-      <c r="AW45" s="105"/>
-      <c r="AX45" s="9" t="s">
+      <c r="AV45" s="105"/>
+      <c r="AW45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AY45" s="9">
+      <c r="AX45" s="9">
         <f>210*3600*24/12</f>
         <v>1512000</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -14881,16 +14762,15 @@
       <c r="AT46" s="9"/>
       <c r="AU46" s="9"/>
       <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="9" t="s">
+      <c r="AW46" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AY46" s="9">
+      <c r="AX46" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A47" s="110" t="s">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A47" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -14935,20 +14815,19 @@
       <c r="AP47" s="11"/>
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
-      <c r="AS47" s="11"/>
-      <c r="AT47" s="9" t="s">
+      <c r="AS47" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="AT47" s="9"/>
       <c r="AU47" s="9"/>
       <c r="AV47" s="9"/>
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="9">
+      <c r="AW47" s="9">
         <f>1/59</f>
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A48" s="111"/>
       <c r="B48">
         <v>1</v>
       </c>
@@ -14991,15 +14870,14 @@
       <c r="AP48" s="12"/>
       <c r="AQ48" s="12"/>
       <c r="AR48" s="12"/>
-      <c r="AS48" s="12"/>
+      <c r="AS48" s="9"/>
       <c r="AT48" s="9"/>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9"/>
       <c r="AW48" s="9"/>
-      <c r="AX48" s="9"/>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49" s="111"/>
       <c r="B49">
         <v>1</v>
       </c>
@@ -15011,15 +14889,15 @@
       </c>
       <c r="E49" s="28">
         <f>E50*$K$49</f>
-        <v>208.87616791028256</v>
+        <v>202.5847905487137</v>
       </c>
       <c r="F49" s="28">
         <f>F50*$K$49</f>
-        <v>2.2585619087657482</v>
+        <v>2.1905337301340246</v>
       </c>
       <c r="G49" s="28">
         <f>G50*$K$49</f>
-        <v>22.585619087657477</v>
+        <v>21.905337301340243</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>32</v>
@@ -15032,15 +14910,15 @@
       </c>
       <c r="K49" s="1">
         <f>$P$55/$O$50/(1+$E$50*$E$53+$F$50*$F$53+$G$50*$G$53)</f>
-        <v>3.5508948544748037E-2</v>
+        <v>3.4439414393281333E-2</v>
       </c>
       <c r="L49" s="28">
         <f>K49*$Y$38</f>
-        <v>1.775447427237402E-4</v>
+        <v>1.7219707196640668E-4</v>
       </c>
       <c r="M49" s="28">
         <f>M50*$K$49</f>
-        <v>5.3263422817122059</v>
+        <v>8.609853598320333</v>
       </c>
       <c r="N49" s="76" t="s">
         <v>134</v>
@@ -15054,7 +14932,7 @@
       <c r="Q49" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="111" t="s">
+      <c r="R49" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S49" s="9" t="s">
@@ -15069,14 +14947,13 @@
       <c r="AP49" s="12"/>
       <c r="AQ49" s="12"/>
       <c r="AR49" s="12"/>
-      <c r="AS49" s="12"/>
+      <c r="AS49" s="9"/>
       <c r="AT49" s="9"/>
       <c r="AU49" s="9"/>
       <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
-      <c r="AX49" s="9"/>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="E50" s="57">
         <f>AB38</f>
         <v>5882.3529411764703</v>
@@ -15095,11 +14972,12 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22">
-        <v>150</v>
+        <f>INPUTS!M28</f>
+        <v>250</v>
       </c>
       <c r="N50" s="77">
         <f>SUM(AK5:AK34,J37:J42)/K49</f>
-        <v>0.58762591446592305</v>
+        <v>0.58774065681765075</v>
       </c>
       <c r="O50" s="16">
         <f>INPUTS!O28</f>
@@ -15113,7 +14991,7 @@
         <f>INPUTS!Q28</f>
         <v>1.2</v>
       </c>
-      <c r="R50" s="111"/>
+      <c r="R50" s="112"/>
       <c r="S50" s="9" t="s">
         <v>48</v>
       </c>
@@ -15128,16 +15006,15 @@
       <c r="AP50" s="12"/>
       <c r="AQ50" s="12"/>
       <c r="AR50" s="12"/>
-      <c r="AS50" s="12"/>
+      <c r="AS50" s="9"/>
       <c r="AT50" s="9"/>
       <c r="AU50" s="9"/>
       <c r="AV50" s="9"/>
       <c r="AW50" s="9"/>
-      <c r="AX50" s="9"/>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
-      <c r="R51" s="111"/>
+      <c r="R51" s="112"/>
       <c r="S51" s="9" t="s">
         <v>49</v>
       </c>
@@ -15158,14 +15035,13 @@
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
       <c r="AR51" s="13"/>
-      <c r="AS51" s="13"/>
+      <c r="AS51" s="9"/>
       <c r="AT51" s="9"/>
       <c r="AU51" s="9"/>
       <c r="AV51" s="9"/>
       <c r="AW51" s="9"/>
-      <c r="AX51" s="9"/>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D52" s="27" t="s">
         <v>78</v>
       </c>
@@ -15175,9 +15051,9 @@
       </c>
       <c r="P52" s="36">
         <f>K49+SUM(J37:J42)+SUM(AK5:AK34)</f>
-        <v>5.6374926905079017E-2</v>
-      </c>
-      <c r="R52" s="111"/>
+        <v>5.4680858429203755E-2</v>
+      </c>
+      <c r="R52" s="112"/>
       <c r="S52" s="9" t="s">
         <v>50</v>
       </c>
@@ -15196,14 +15072,13 @@
       <c r="AP52" s="13"/>
       <c r="AQ52" s="13"/>
       <c r="AR52" s="13"/>
-      <c r="AS52" s="13"/>
+      <c r="AS52" s="9"/>
       <c r="AT52" s="9"/>
       <c r="AU52" s="9"/>
       <c r="AV52" s="9"/>
       <c r="AW52" s="9"/>
-      <c r="AX52" s="9"/>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D53" s="23" t="s">
         <v>79</v>
       </c>
@@ -15223,7 +15098,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R53" s="111"/>
+      <c r="R53" s="112"/>
       <c r="S53" s="9" t="s">
         <v>51</v>
       </c>
@@ -15245,14 +15120,13 @@
       <c r="AP53" s="12"/>
       <c r="AQ53" s="12"/>
       <c r="AR53" s="12"/>
-      <c r="AS53" s="12"/>
+      <c r="AS53" s="9"/>
       <c r="AT53" s="9"/>
       <c r="AU53" s="9"/>
       <c r="AV53" s="9"/>
       <c r="AW53" s="9"/>
-      <c r="AX53" s="9"/>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D54" s="23" t="s">
         <v>76</v>
       </c>
@@ -15272,7 +15146,7 @@
         <f>E48*E53+F48*F53</f>
         <v>0</v>
       </c>
-      <c r="R54" s="111"/>
+      <c r="R54" s="112"/>
       <c r="S54" s="11" t="s">
         <v>52</v>
       </c>
@@ -15286,13 +15160,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="O55" s="35" t="s">
         <v>109</v>
       </c>
       <c r="P55" s="36">
         <f t="array" ref="P55">SUM(J37:J42,AK5:AK34)+SUM(AF5:AF34*F53,L37:L42*F53)+SUM(AH5:AH34*J53,M37:M42*J53)+SUM(AE5:AE34*E53,O37:O42*E53)+SUM(N37:N42*E53,AG5:AG34*E53)</f>
-        <v>3.4489094939910626E-2</v>
+        <v>3.3450278911750092E-2</v>
       </c>
       <c r="W55" s="35" t="s">
         <v>122</v>
@@ -15301,17 +15175,17 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="O56" s="35" t="s">
         <v>110</v>
       </c>
       <c r="P56" s="36">
         <f>K49+E49*E53+F49*F53+G49*G53</f>
-        <v>4.3111368674888281E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="113" t="s">
+        <v>4.1812848639687608E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="114" t="s">
         <v>156</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -15355,12 +15229,12 @@
       </c>
       <c r="P57" s="36">
         <f>P56+P55+P54</f>
-        <v>7.7600463614798915E-2</v>
+        <v>7.52631275514377E-2</v>
       </c>
       <c r="Q57" s="32"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A58" s="113"/>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A58" s="114"/>
       <c r="B58">
         <v>1</v>
       </c>
@@ -15401,8 +15275,8 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A59" s="113"/>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A59" s="114"/>
       <c r="B59">
         <f>B58</f>
         <v>1</v>
@@ -15423,30 +15297,30 @@
         <v>False</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:M59" si="182">G58</f>
+        <f t="shared" ref="G59:M59" si="161">G58</f>
         <v>0</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="161"/>
         <v>20</v>
       </c>
       <c r="J59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="161"/>
         <v>3600</v>
       </c>
       <c r="K59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="161"/>
         <v>3600</v>
       </c>
       <c r="L59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="182"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="O59" s="35" t="s">
@@ -15454,11 +15328,11 @@
       </c>
       <c r="P59" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$37:$J$42)/$P$55</f>
-        <v>0.41050884740986027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A60" s="113"/>
+        <v>0.41087241587729117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A60" s="114"/>
       <c r="B60">
         <f>B59</f>
         <v>1</v>
@@ -15479,30 +15353,30 @@
         <v>False</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:M60" si="183">G58</f>
+        <f t="shared" ref="G60:M60" si="162">G58</f>
         <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="162"/>
         <v>20</v>
       </c>
       <c r="J60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="162"/>
         <v>3600</v>
       </c>
       <c r="K60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="162"/>
         <v>3600</v>
       </c>
       <c r="L60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="183"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O60" s="35" t="s">
@@ -15510,11 +15384,11 @@
       </c>
       <c r="P60" s="39">
         <f>1-$K$49/$P$56</f>
-        <v>0.17634374328200209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A61" s="113"/>
+        <v>0.17634374328200197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A61" s="114"/>
       <c r="B61">
         <f>B60</f>
         <v>1</v>
@@ -15535,30 +15409,30 @@
         <v>False</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:M61" si="184">G58</f>
+        <f t="shared" ref="G61:M61" si="163">G58</f>
         <v>0</v>
       </c>
       <c r="H61">
         <v>6</v>
       </c>
       <c r="I61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="163"/>
         <v>20</v>
       </c>
       <c r="J61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="163"/>
         <v>3600</v>
       </c>
       <c r="K61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="163"/>
         <v>3600</v>
       </c>
       <c r="L61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="184"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="O61" s="35" t="s">
@@ -15566,11 +15440,11 @@
       </c>
       <c r="P61" s="39">
         <f>1-SUM($AK$5:$AK$12,$J$37:$J$42)/($P$55+N50/(1+N50)*P54)</f>
-        <v>0.41050884740986027</v>
-      </c>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A62" s="113"/>
+        <v>0.41087241587729117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A62" s="114"/>
       <c r="B62">
         <f>B61</f>
         <v>1</v>
@@ -15591,30 +15465,30 @@
         <v>False</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:M62" si="185">G58</f>
+        <f t="shared" ref="G62:M62" si="164">G58</f>
         <v>0</v>
       </c>
       <c r="H62">
         <v>7</v>
       </c>
       <c r="I62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="164"/>
         <v>20</v>
       </c>
       <c r="J62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="164"/>
         <v>3600</v>
       </c>
       <c r="K62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="164"/>
         <v>3600</v>
       </c>
       <c r="L62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="185"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O62" s="35" t="s">
@@ -15622,10 +15496,10 @@
       </c>
       <c r="P62" s="39">
         <f>1-$K$49/($P$56+1/(1+N50)*P54)</f>
-        <v>0.17634374328200209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+        <v>0.17634374328200197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="O64" s="35" t="s">
         <v>132</v>
       </c>
@@ -15649,7 +15523,7 @@
       </c>
       <c r="P66" s="75">
         <f>($Y$45*$P$55+$Q$50*$P$56)/($P$55+$P$56)</f>
-        <v>2.6107068543350294</v>
+        <v>2.6052937587875906</v>
       </c>
     </row>
   </sheetData>
@@ -15702,7 +15576,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -15855,7 +15729,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="111"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -16028,7 +15902,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
+      <c r="A6" s="111"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -16200,7 +16074,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
+      <c r="A7" s="111"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -16369,7 +16243,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
+      <c r="A8" s="111"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -16538,7 +16412,7 @@
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
+      <c r="A9" s="111"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -16707,7 +16581,7 @@
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
+      <c r="A10" s="111"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -16876,7 +16750,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
+      <c r="A11" s="111"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -17045,7 +16919,7 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
+      <c r="A12" s="111"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -17226,7 +17100,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -17308,7 +17182,7 @@
       <c r="AF14" s="5"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
+      <c r="A15" s="111"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -17405,7 +17279,7 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+      <c r="A16" s="111"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -17503,7 +17377,7 @@
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
+      <c r="A17" s="111"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -17596,7 +17470,7 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="111"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -17688,7 +17562,7 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
+      <c r="A19" s="111"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -17784,7 +17658,7 @@
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+      <c r="A20" s="111"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -17949,7 +17823,7 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -18005,7 +17879,7 @@
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
+      <c r="A26" s="111"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -18054,7 +17928,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
+      <c r="A27" s="111"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -18106,7 +17980,7 @@
       <c r="Q27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="111" t="s">
+      <c r="R27" s="112" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -18156,7 +18030,7 @@
       <c r="Q28" s="16">
         <v>1.2</v>
       </c>
-      <c r="R28" s="111"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="9" t="s">
         <v>48</v>
       </c>
@@ -18176,7 +18050,7 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="111"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="9" t="s">
         <v>49</v>
       </c>
@@ -18205,7 +18079,7 @@
         <v>78</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="R30" s="111"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="9" t="s">
         <v>50</v>
       </c>
@@ -18254,7 +18128,7 @@
         <f t="array" ref="P31">SUM(I15:I20,AI5:AI12)+SUM(AD5:AD12*F31,K15:K20*F31)+SUM(AF5:AF12*J31,L15:L20*J31)+SUM(AC5:AC12*E31,N15:N20*E31)</f>
         <v>3.5521334871089626E-2</v>
       </c>
-      <c r="R31" s="111"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="9" t="s">
         <v>51</v>
       </c>
@@ -18372,7 +18246,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18406,15 +18280,15 @@
         <v>158</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <f>B2*10^3/10000</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" s="94">
         <f>C2*10^6/14</f>
-        <v>71428.571428571435</v>
+        <v>428571.42857142858</v>
       </c>
       <c r="E2" s="95">
         <v>36146</v>
